--- a/Bases_de_Dados_(2022-2024)/Colombia Categoria Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Colombia Categoria Primera B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="248">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -565,6 +565,9 @@
     <t>['78']</t>
   </si>
   <si>
+    <t>['60', '70']</t>
+  </si>
+  <si>
     <t>['47', '90+7']</t>
   </si>
   <si>
@@ -749,6 +752,12 @@
   </si>
   <si>
     <t>['63']</t>
+  </si>
+  <si>
+    <t>['38', '70']</t>
+  </si>
+  <si>
+    <t>['26', '41', '50']</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK155"/>
+  <dimension ref="A1:BK157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1354,7 +1363,7 @@
         <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -2118,7 +2127,7 @@
         <v>85</v>
       </c>
       <c r="P6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2309,7 +2318,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2500,7 +2509,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2781,7 +2790,7 @@
         <v>1.75</v>
       </c>
       <c r="AT9">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2882,7 +2891,7 @@
         <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -2972,7 +2981,7 @@
         <v>1.55</v>
       </c>
       <c r="AT10">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3160,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT11">
         <v>0.25</v>
@@ -3542,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT13">
         <v>1.5</v>
@@ -3646,7 +3655,7 @@
         <v>93</v>
       </c>
       <c r="P14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3837,7 +3846,7 @@
         <v>94</v>
       </c>
       <c r="P15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q15">
         <v>9</v>
@@ -4219,7 +4228,7 @@
         <v>96</v>
       </c>
       <c r="P17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4410,7 +4419,7 @@
         <v>97</v>
       </c>
       <c r="P18" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -5643,7 +5652,7 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT24">
         <v>1.55</v>
@@ -5837,7 +5846,7 @@
         <v>1.91</v>
       </c>
       <c r="AT25">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU25">
         <v>2.14</v>
@@ -5938,7 +5947,7 @@
         <v>103</v>
       </c>
       <c r="P26" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -6320,7 +6329,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6702,7 +6711,7 @@
         <v>107</v>
       </c>
       <c r="P30" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6893,7 +6902,7 @@
         <v>94</v>
       </c>
       <c r="P31" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6983,7 +6992,7 @@
         <v>0.63</v>
       </c>
       <c r="AT31">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU31">
         <v>1.7</v>
@@ -7466,7 +7475,7 @@
         <v>94</v>
       </c>
       <c r="P34" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q34">
         <v>1</v>
@@ -7848,7 +7857,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8126,7 +8135,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT37">
         <v>0.88</v>
@@ -8803,7 +8812,7 @@
         <v>94</v>
       </c>
       <c r="P41" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q41">
         <v>10</v>
@@ -8994,7 +9003,7 @@
         <v>94</v>
       </c>
       <c r="P42" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9185,7 +9194,7 @@
         <v>114</v>
       </c>
       <c r="P43" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9275,7 +9284,7 @@
         <v>2.18</v>
       </c>
       <c r="AT43">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU43">
         <v>1.34</v>
@@ -9376,7 +9385,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -9845,7 +9854,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT46">
         <v>1.25</v>
@@ -10036,7 +10045,7 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT47">
         <v>0.91</v>
@@ -10331,7 +10340,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10421,7 +10430,7 @@
         <v>1.45</v>
       </c>
       <c r="AT49">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU49">
         <v>1.57</v>
@@ -10904,7 +10913,7 @@
         <v>122</v>
       </c>
       <c r="P52" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -10994,7 +11003,7 @@
         <v>1</v>
       </c>
       <c r="AT52">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU52">
         <v>1.29</v>
@@ -12137,7 +12146,7 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT58">
         <v>1.25</v>
@@ -12241,7 +12250,7 @@
         <v>94</v>
       </c>
       <c r="P59" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12328,7 +12337,7 @@
         <v>1.75</v>
       </c>
       <c r="AS59">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT59">
         <v>1.27</v>
@@ -12623,7 +12632,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -13005,7 +13014,7 @@
         <v>129</v>
       </c>
       <c r="P63" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q63">
         <v>6</v>
@@ -13196,7 +13205,7 @@
         <v>94</v>
       </c>
       <c r="P64" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13477,7 +13486,7 @@
         <v>2.17</v>
       </c>
       <c r="AT65">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU65">
         <v>1.45</v>
@@ -13578,7 +13587,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q66">
         <v>9</v>
@@ -13960,7 +13969,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14151,7 +14160,7 @@
         <v>94</v>
       </c>
       <c r="P69" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q69">
         <v>12</v>
@@ -14432,7 +14441,7 @@
         <v>1.75</v>
       </c>
       <c r="AT70">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU70">
         <v>1.53</v>
@@ -14533,7 +14542,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q71">
         <v>1</v>
@@ -14915,7 +14924,7 @@
         <v>94</v>
       </c>
       <c r="P73" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -15002,7 +15011,7 @@
         <v>2</v>
       </c>
       <c r="AS73">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT73">
         <v>1.27</v>
@@ -15106,7 +15115,7 @@
         <v>94</v>
       </c>
       <c r="P74" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -15193,7 +15202,7 @@
         <v>1.75</v>
       </c>
       <c r="AS74">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT74">
         <v>1.55</v>
@@ -15297,7 +15306,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15679,7 +15688,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q77">
         <v>7</v>
@@ -15870,7 +15879,7 @@
         <v>138</v>
       </c>
       <c r="P78" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q78">
         <v>9</v>
@@ -16443,7 +16452,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16825,7 +16834,7 @@
         <v>141</v>
       </c>
       <c r="P83" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -16915,7 +16924,7 @@
         <v>1.55</v>
       </c>
       <c r="AT83">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU83">
         <v>1.61</v>
@@ -17016,7 +17025,7 @@
         <v>94</v>
       </c>
       <c r="P84" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17106,7 +17115,7 @@
         <v>1.45</v>
       </c>
       <c r="AT84">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU84">
         <v>1.75</v>
@@ -17207,7 +17216,7 @@
         <v>142</v>
       </c>
       <c r="P85" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17589,7 +17598,7 @@
         <v>94</v>
       </c>
       <c r="P87" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17780,7 +17789,7 @@
         <v>143</v>
       </c>
       <c r="P88" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q88">
         <v>9</v>
@@ -18061,7 +18070,7 @@
         <v>1.13</v>
       </c>
       <c r="AT89">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU89">
         <v>1.27</v>
@@ -18162,7 +18171,7 @@
         <v>94</v>
       </c>
       <c r="P90" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q90">
         <v>12</v>
@@ -18249,7 +18258,7 @@
         <v>0.6</v>
       </c>
       <c r="AS90">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT90">
         <v>0.75</v>
@@ -18544,7 +18553,7 @@
         <v>94</v>
       </c>
       <c r="P92" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -18631,7 +18640,7 @@
         <v>1</v>
       </c>
       <c r="AS92">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT92">
         <v>1.33</v>
@@ -18735,7 +18744,7 @@
         <v>145</v>
       </c>
       <c r="P93" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q93">
         <v>8</v>
@@ -18926,7 +18935,7 @@
         <v>94</v>
       </c>
       <c r="P94" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19117,7 +19126,7 @@
         <v>94</v>
       </c>
       <c r="P95" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q95">
         <v>6</v>
@@ -19398,7 +19407,7 @@
         <v>1.55</v>
       </c>
       <c r="AT96">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU96">
         <v>1.42</v>
@@ -19499,7 +19508,7 @@
         <v>146</v>
       </c>
       <c r="P97" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q97">
         <v>10</v>
@@ -19881,7 +19890,7 @@
         <v>148</v>
       </c>
       <c r="P99" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q99">
         <v>7</v>
@@ -21117,7 +21126,7 @@
         <v>2.17</v>
       </c>
       <c r="AT105">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU105">
         <v>1.44</v>
@@ -21218,7 +21227,7 @@
         <v>152</v>
       </c>
       <c r="P106" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q106">
         <v>2</v>
@@ -21409,7 +21418,7 @@
         <v>153</v>
       </c>
       <c r="P107" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21878,7 +21887,7 @@
         <v>0.5</v>
       </c>
       <c r="AS109">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT109">
         <v>0.63</v>
@@ -22069,7 +22078,7 @@
         <v>1</v>
       </c>
       <c r="AS110">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT110">
         <v>0.91</v>
@@ -22555,7 +22564,7 @@
         <v>158</v>
       </c>
       <c r="P113" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -23027,7 +23036,7 @@
         <v>1</v>
       </c>
       <c r="AT115">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU115">
         <v>1.68</v>
@@ -23218,7 +23227,7 @@
         <v>1.5</v>
       </c>
       <c r="AT116">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU116">
         <v>1.62</v>
@@ -23510,7 +23519,7 @@
         <v>161</v>
       </c>
       <c r="P118" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -24083,7 +24092,7 @@
         <v>163</v>
       </c>
       <c r="P121" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24274,7 +24283,7 @@
         <v>158</v>
       </c>
       <c r="P122" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q122">
         <v>1</v>
@@ -24361,7 +24370,7 @@
         <v>1.29</v>
       </c>
       <c r="AS122">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT122">
         <v>1.5</v>
@@ -24465,7 +24474,7 @@
         <v>164</v>
       </c>
       <c r="P123" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q123">
         <v>9</v>
@@ -24656,7 +24665,7 @@
         <v>165</v>
       </c>
       <c r="P124" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q124">
         <v>10</v>
@@ -25229,7 +25238,7 @@
         <v>167</v>
       </c>
       <c r="P127" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -25420,7 +25429,7 @@
         <v>94</v>
       </c>
       <c r="P128" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q128">
         <v>2</v>
@@ -25507,7 +25516,7 @@
         <v>1.29</v>
       </c>
       <c r="AS128">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT128">
         <v>1.33</v>
@@ -25802,7 +25811,7 @@
         <v>168</v>
       </c>
       <c r="P130" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -26184,7 +26193,7 @@
         <v>170</v>
       </c>
       <c r="P132" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q132">
         <v>7</v>
@@ -26274,7 +26283,7 @@
         <v>1.45</v>
       </c>
       <c r="AT132">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU132">
         <v>1.63</v>
@@ -26566,7 +26575,7 @@
         <v>171</v>
       </c>
       <c r="P134" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q134">
         <v>1</v>
@@ -26656,7 +26665,7 @@
         <v>2.58</v>
       </c>
       <c r="AT134">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU134">
         <v>1.46</v>
@@ -26757,7 +26766,7 @@
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -27712,7 +27721,7 @@
         <v>176</v>
       </c>
       <c r="P140" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q140">
         <v>10</v>
@@ -27903,7 +27912,7 @@
         <v>94</v>
       </c>
       <c r="P141" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q141">
         <v>12</v>
@@ -28285,7 +28294,7 @@
         <v>94</v>
       </c>
       <c r="P143" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28375,7 +28384,7 @@
         <v>1.91</v>
       </c>
       <c r="AT143">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU143">
         <v>1.57</v>
@@ -28476,7 +28485,7 @@
         <v>177</v>
       </c>
       <c r="P144" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q144">
         <v>2</v>
@@ -28566,7 +28575,7 @@
         <v>2.17</v>
       </c>
       <c r="AT144">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU144">
         <v>1.38</v>
@@ -28667,7 +28676,7 @@
         <v>94</v>
       </c>
       <c r="P145" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -28858,7 +28867,7 @@
         <v>178</v>
       </c>
       <c r="P146" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q146">
         <v>8</v>
@@ -29049,7 +29058,7 @@
         <v>94</v>
       </c>
       <c r="P147" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -29431,7 +29440,7 @@
         <v>92</v>
       </c>
       <c r="P149" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q149">
         <v>2</v>
@@ -29521,7 +29530,7 @@
         <v>1.55</v>
       </c>
       <c r="AT149">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU149">
         <v>1.49</v>
@@ -29622,7 +29631,7 @@
         <v>179</v>
       </c>
       <c r="P150" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q150">
         <v>6</v>
@@ -30004,7 +30013,7 @@
         <v>94</v>
       </c>
       <c r="P152" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q152">
         <v>4</v>
@@ -30094,7 +30103,7 @@
         <v>1.55</v>
       </c>
       <c r="AT152">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AU152">
         <v>1.43</v>
@@ -30719,6 +30728,388 @@
       </c>
       <c r="BK155">
         <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:63">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>6167006</v>
+      </c>
+      <c r="C156" t="s">
+        <v>63</v>
+      </c>
+      <c r="D156" t="s">
+        <v>64</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45127.75</v>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+      <c r="G156" t="s">
+        <v>74</v>
+      </c>
+      <c r="H156" t="s">
+        <v>66</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <v>1</v>
+      </c>
+      <c r="K156">
+        <v>2</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="M156">
+        <v>2</v>
+      </c>
+      <c r="N156">
+        <v>3</v>
+      </c>
+      <c r="O156" t="s">
+        <v>140</v>
+      </c>
+      <c r="P156" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q156">
+        <v>5</v>
+      </c>
+      <c r="R156">
+        <v>6</v>
+      </c>
+      <c r="S156">
+        <v>11</v>
+      </c>
+      <c r="T156">
+        <v>4.55</v>
+      </c>
+      <c r="U156">
+        <v>2.05</v>
+      </c>
+      <c r="V156">
+        <v>2.87</v>
+      </c>
+      <c r="W156">
+        <v>1.49</v>
+      </c>
+      <c r="X156">
+        <v>2.4</v>
+      </c>
+      <c r="Y156">
+        <v>3.32</v>
+      </c>
+      <c r="Z156">
+        <v>1.29</v>
+      </c>
+      <c r="AA156">
+        <v>8.9</v>
+      </c>
+      <c r="AB156">
+        <v>1.03</v>
+      </c>
+      <c r="AC156">
+        <v>3.46</v>
+      </c>
+      <c r="AD156">
+        <v>2.65</v>
+      </c>
+      <c r="AE156">
+        <v>2.26</v>
+      </c>
+      <c r="AF156">
+        <v>1.08</v>
+      </c>
+      <c r="AG156">
+        <v>8.15</v>
+      </c>
+      <c r="AH156">
+        <v>1.41</v>
+      </c>
+      <c r="AI156">
+        <v>2.69</v>
+      </c>
+      <c r="AJ156">
+        <v>2.29</v>
+      </c>
+      <c r="AK156">
+        <v>1.55</v>
+      </c>
+      <c r="AL156">
+        <v>2</v>
+      </c>
+      <c r="AM156">
+        <v>1.77</v>
+      </c>
+      <c r="AN156">
+        <v>1.71</v>
+      </c>
+      <c r="AO156">
+        <v>1.3</v>
+      </c>
+      <c r="AP156">
+        <v>1.24</v>
+      </c>
+      <c r="AQ156">
+        <v>1.5</v>
+      </c>
+      <c r="AR156">
+        <v>1.18</v>
+      </c>
+      <c r="AS156">
+        <v>1.33</v>
+      </c>
+      <c r="AT156">
+        <v>1.33</v>
+      </c>
+      <c r="AU156">
+        <v>1.33</v>
+      </c>
+      <c r="AV156">
+        <v>1.37</v>
+      </c>
+      <c r="AW156">
+        <v>2.7</v>
+      </c>
+      <c r="AX156">
+        <v>0</v>
+      </c>
+      <c r="AY156">
+        <v>0</v>
+      </c>
+      <c r="AZ156">
+        <v>0</v>
+      </c>
+      <c r="BA156">
+        <v>0</v>
+      </c>
+      <c r="BB156">
+        <v>0</v>
+      </c>
+      <c r="BC156">
+        <v>0</v>
+      </c>
+      <c r="BD156">
+        <v>0</v>
+      </c>
+      <c r="BE156">
+        <v>0</v>
+      </c>
+      <c r="BF156">
+        <v>4</v>
+      </c>
+      <c r="BG156">
+        <v>7</v>
+      </c>
+      <c r="BH156">
+        <v>5</v>
+      </c>
+      <c r="BI156">
+        <v>4</v>
+      </c>
+      <c r="BJ156">
+        <v>9</v>
+      </c>
+      <c r="BK156">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" spans="1:63">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>6167007</v>
+      </c>
+      <c r="C157" t="s">
+        <v>63</v>
+      </c>
+      <c r="D157" t="s">
+        <v>64</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45127.875</v>
+      </c>
+      <c r="F157">
+        <v>1</v>
+      </c>
+      <c r="G157" t="s">
+        <v>76</v>
+      </c>
+      <c r="H157" t="s">
+        <v>79</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>2</v>
+      </c>
+      <c r="K157">
+        <v>2</v>
+      </c>
+      <c r="L157">
+        <v>2</v>
+      </c>
+      <c r="M157">
+        <v>3</v>
+      </c>
+      <c r="N157">
+        <v>5</v>
+      </c>
+      <c r="O157" t="s">
+        <v>183</v>
+      </c>
+      <c r="P157" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q157">
+        <v>3</v>
+      </c>
+      <c r="R157">
+        <v>3</v>
+      </c>
+      <c r="S157">
+        <v>6</v>
+      </c>
+      <c r="T157">
+        <v>4</v>
+      </c>
+      <c r="U157">
+        <v>1.82</v>
+      </c>
+      <c r="V157">
+        <v>3.2</v>
+      </c>
+      <c r="W157">
+        <v>1.62</v>
+      </c>
+      <c r="X157">
+        <v>2.24</v>
+      </c>
+      <c r="Y157">
+        <v>3.75</v>
+      </c>
+      <c r="Z157">
+        <v>1.23</v>
+      </c>
+      <c r="AA157">
+        <v>8.75</v>
+      </c>
+      <c r="AB157">
+        <v>1.03</v>
+      </c>
+      <c r="AC157">
+        <v>7.56</v>
+      </c>
+      <c r="AD157">
+        <v>7.48</v>
+      </c>
+      <c r="AE157">
+        <v>1.18</v>
+      </c>
+      <c r="AF157">
+        <v>1.11</v>
+      </c>
+      <c r="AG157">
+        <v>6.6</v>
+      </c>
+      <c r="AH157">
+        <v>1.51</v>
+      </c>
+      <c r="AI157">
+        <v>2.38</v>
+      </c>
+      <c r="AJ157">
+        <v>2.65</v>
+      </c>
+      <c r="AK157">
+        <v>1.42</v>
+      </c>
+      <c r="AL157">
+        <v>2.2</v>
+      </c>
+      <c r="AM157">
+        <v>1.6</v>
+      </c>
+      <c r="AN157">
+        <v>1.52</v>
+      </c>
+      <c r="AO157">
+        <v>1.34</v>
+      </c>
+      <c r="AP157">
+        <v>1.32</v>
+      </c>
+      <c r="AQ157">
+        <v>1</v>
+      </c>
+      <c r="AR157">
+        <v>1.18</v>
+      </c>
+      <c r="AS157">
+        <v>0.89</v>
+      </c>
+      <c r="AT157">
+        <v>1.33</v>
+      </c>
+      <c r="AU157">
+        <v>1.49</v>
+      </c>
+      <c r="AV157">
+        <v>1.22</v>
+      </c>
+      <c r="AW157">
+        <v>2.71</v>
+      </c>
+      <c r="AX157">
+        <v>0</v>
+      </c>
+      <c r="AY157">
+        <v>0</v>
+      </c>
+      <c r="AZ157">
+        <v>0</v>
+      </c>
+      <c r="BA157">
+        <v>0</v>
+      </c>
+      <c r="BB157">
+        <v>0</v>
+      </c>
+      <c r="BC157">
+        <v>0</v>
+      </c>
+      <c r="BD157">
+        <v>0</v>
+      </c>
+      <c r="BE157">
+        <v>0</v>
+      </c>
+      <c r="BF157">
+        <v>3</v>
+      </c>
+      <c r="BG157">
+        <v>6</v>
+      </c>
+      <c r="BH157">
+        <v>4</v>
+      </c>
+      <c r="BI157">
+        <v>7</v>
+      </c>
+      <c r="BJ157">
+        <v>7</v>
+      </c>
+      <c r="BK157">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Colombia Categoria Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Colombia Categoria Primera B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="253">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>Bogotá</t>
+  </si>
+  <si>
+    <t>Real Soacha</t>
   </si>
   <si>
     <t>['30', '67']</t>
@@ -568,6 +571,9 @@
     <t>['60', '70']</t>
   </si>
   <si>
+    <t>['26', '68']</t>
+  </si>
+  <si>
     <t>['47', '90+7']</t>
   </si>
   <si>
@@ -758,6 +764,15 @@
   </si>
   <si>
     <t>['26', '41', '50']</t>
+  </si>
+  <si>
+    <t>['53', '65']</t>
+  </si>
+  <si>
+    <t>['36', '36']</t>
+  </si>
+  <si>
+    <t>['20', '30']</t>
   </si>
 </sst>
 </file>
@@ -1119,7 +1134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK157"/>
+  <dimension ref="A1:BK161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1360,10 +1375,10 @@
         <v>4</v>
       </c>
       <c r="O2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1551,10 +1566,10 @@
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1742,10 +1757,10 @@
         <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q4">
         <v>2</v>
@@ -1933,10 +1948,10 @@
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -2124,10 +2139,10 @@
         <v>2</v>
       </c>
       <c r="O6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2315,10 +2330,10 @@
         <v>2</v>
       </c>
       <c r="O7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2506,10 +2521,10 @@
         <v>5</v>
       </c>
       <c r="O8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2596,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT8">
         <v>1.33</v>
@@ -2697,10 +2712,10 @@
         <v>2</v>
       </c>
       <c r="O9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2787,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT9">
         <v>1.33</v>
@@ -2888,10 +2903,10 @@
         <v>2</v>
       </c>
       <c r="O10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -3079,10 +3094,10 @@
         <v>1</v>
       </c>
       <c r="O11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q11">
         <v>5</v>
@@ -3172,7 +3187,7 @@
         <v>1.33</v>
       </c>
       <c r="AT11">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3270,10 +3285,10 @@
         <v>1</v>
       </c>
       <c r="O12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -3360,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT12">
         <v>0.63</v>
@@ -3461,10 +3476,10 @@
         <v>1</v>
       </c>
       <c r="O13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3554,7 +3569,7 @@
         <v>0.89</v>
       </c>
       <c r="AT13">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3652,10 +3667,10 @@
         <v>4</v>
       </c>
       <c r="O14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3745,7 +3760,7 @@
         <v>2.58</v>
       </c>
       <c r="AT14">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3843,10 +3858,10 @@
         <v>3</v>
       </c>
       <c r="O15" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q15">
         <v>9</v>
@@ -3936,7 +3951,7 @@
         <v>1.91</v>
       </c>
       <c r="AT15">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4034,10 +4049,10 @@
         <v>4</v>
       </c>
       <c r="O16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q16">
         <v>8</v>
@@ -4225,10 +4240,10 @@
         <v>2</v>
       </c>
       <c r="O17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4318,7 +4333,7 @@
         <v>1.5</v>
       </c>
       <c r="AT17">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4416,10 +4431,10 @@
         <v>3</v>
       </c>
       <c r="O18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4607,10 +4622,10 @@
         <v>2</v>
       </c>
       <c r="O19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q19">
         <v>5</v>
@@ -4697,7 +4712,7 @@
         <v>1</v>
       </c>
       <c r="AS19">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT19">
         <v>1.27</v>
@@ -4798,10 +4813,10 @@
         <v>1</v>
       </c>
       <c r="O20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -4989,10 +5004,10 @@
         <v>1</v>
       </c>
       <c r="O21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5180,10 +5195,10 @@
         <v>1</v>
       </c>
       <c r="O22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q22">
         <v>10</v>
@@ -5371,10 +5386,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P23" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5562,10 +5577,10 @@
         <v>3</v>
       </c>
       <c r="O24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5655,7 +5670,7 @@
         <v>0.89</v>
       </c>
       <c r="AT24">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU24">
         <v>1.43</v>
@@ -5753,10 +5768,10 @@
         <v>1</v>
       </c>
       <c r="O25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5944,10 +5959,10 @@
         <v>3</v>
       </c>
       <c r="O26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -6135,10 +6150,10 @@
         <v>2</v>
       </c>
       <c r="O27" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -6326,10 +6341,10 @@
         <v>2</v>
       </c>
       <c r="O28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6416,7 +6431,7 @@
         <v>1</v>
       </c>
       <c r="AS28">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT28">
         <v>0.38</v>
@@ -6517,10 +6532,10 @@
         <v>2</v>
       </c>
       <c r="O29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6607,7 +6622,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT29">
         <v>0.91</v>
@@ -6708,10 +6723,10 @@
         <v>7</v>
       </c>
       <c r="O30" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6801,7 +6816,7 @@
         <v>1</v>
       </c>
       <c r="AT30">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU30">
         <v>1</v>
@@ -6899,10 +6914,10 @@
         <v>1</v>
       </c>
       <c r="O31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P31" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7090,10 +7105,10 @@
         <v>1</v>
       </c>
       <c r="O32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P32" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7281,10 +7296,10 @@
         <v>2</v>
       </c>
       <c r="O33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q33">
         <v>3</v>
@@ -7374,7 +7389,7 @@
         <v>1.91</v>
       </c>
       <c r="AT33">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU33">
         <v>1.87</v>
@@ -7472,10 +7487,10 @@
         <v>2</v>
       </c>
       <c r="O34" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P34" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q34">
         <v>1</v>
@@ -7663,10 +7678,10 @@
         <v>1</v>
       </c>
       <c r="O35" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q35">
         <v>5</v>
@@ -7854,10 +7869,10 @@
         <v>3</v>
       </c>
       <c r="O36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7947,7 +7962,7 @@
         <v>2.09</v>
       </c>
       <c r="AT36">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU36">
         <v>1.09</v>
@@ -8045,10 +8060,10 @@
         <v>2</v>
       </c>
       <c r="O37" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P37" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8236,10 +8251,10 @@
         <v>0</v>
       </c>
       <c r="O38" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P38" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q38">
         <v>2</v>
@@ -8427,10 +8442,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P39" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q39">
         <v>6</v>
@@ -8618,10 +8633,10 @@
         <v>2</v>
       </c>
       <c r="O40" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8809,10 +8824,10 @@
         <v>1</v>
       </c>
       <c r="O41" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P41" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q41">
         <v>10</v>
@@ -8899,7 +8914,7 @@
         <v>0.5</v>
       </c>
       <c r="AS41">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT41">
         <v>0.91</v>
@@ -9000,10 +9015,10 @@
         <v>5</v>
       </c>
       <c r="O42" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P42" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9093,7 +9108,7 @@
         <v>0.63</v>
       </c>
       <c r="AT42">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU42">
         <v>1.66</v>
@@ -9191,10 +9206,10 @@
         <v>2</v>
       </c>
       <c r="O43" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9382,10 +9397,10 @@
         <v>4</v>
       </c>
       <c r="O44" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -9573,10 +9588,10 @@
         <v>4</v>
       </c>
       <c r="O45" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P45" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9764,10 +9779,10 @@
         <v>1</v>
       </c>
       <c r="O46" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P46" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q46">
         <v>5</v>
@@ -9857,7 +9872,7 @@
         <v>1.33</v>
       </c>
       <c r="AT46">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU46">
         <v>1.06</v>
@@ -9955,10 +9970,10 @@
         <v>0</v>
       </c>
       <c r="O47" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P47" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q47">
         <v>7</v>
@@ -10146,10 +10161,10 @@
         <v>2</v>
       </c>
       <c r="O48" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P48" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q48">
         <v>3</v>
@@ -10239,7 +10254,7 @@
         <v>1.5</v>
       </c>
       <c r="AT48">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU48">
         <v>1.18</v>
@@ -10337,10 +10352,10 @@
         <v>4</v>
       </c>
       <c r="O49" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10528,10 +10543,10 @@
         <v>4</v>
       </c>
       <c r="O50" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -10621,7 +10636,7 @@
         <v>1.55</v>
       </c>
       <c r="AT50">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU50">
         <v>0.67</v>
@@ -10719,10 +10734,10 @@
         <v>1</v>
       </c>
       <c r="O51" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P51" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -10910,10 +10925,10 @@
         <v>4</v>
       </c>
       <c r="O52" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P52" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11101,10 +11116,10 @@
         <v>2</v>
       </c>
       <c r="O53" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P53" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q53">
         <v>9</v>
@@ -11191,7 +11206,7 @@
         <v>0.33</v>
       </c>
       <c r="AS53">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT53">
         <v>0.75</v>
@@ -11292,10 +11307,10 @@
         <v>0</v>
       </c>
       <c r="O54" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P54" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q54">
         <v>4</v>
@@ -11382,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="AS54">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT54">
         <v>0.63</v>
@@ -11483,10 +11498,10 @@
         <v>1</v>
       </c>
       <c r="O55" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P55" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q55">
         <v>4</v>
@@ -11674,10 +11689,10 @@
         <v>1</v>
       </c>
       <c r="O56" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P56" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q56">
         <v>12</v>
@@ -11865,10 +11880,10 @@
         <v>2</v>
       </c>
       <c r="O57" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q57">
         <v>5</v>
@@ -11955,7 +11970,7 @@
         <v>0</v>
       </c>
       <c r="AS57">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT57">
         <v>0.63</v>
@@ -12056,10 +12071,10 @@
         <v>1</v>
       </c>
       <c r="O58" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P58" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12149,7 +12164,7 @@
         <v>0.89</v>
       </c>
       <c r="AT58">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU58">
         <v>1.63</v>
@@ -12247,10 +12262,10 @@
         <v>2</v>
       </c>
       <c r="O59" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P59" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12438,10 +12453,10 @@
         <v>2</v>
       </c>
       <c r="O60" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P60" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -12629,10 +12644,10 @@
         <v>3</v>
       </c>
       <c r="O61" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -12820,10 +12835,10 @@
         <v>0</v>
       </c>
       <c r="O62" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P62" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q62">
         <v>7</v>
@@ -13011,10 +13026,10 @@
         <v>2</v>
       </c>
       <c r="O63" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q63">
         <v>6</v>
@@ -13104,7 +13119,7 @@
         <v>1</v>
       </c>
       <c r="AT63">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU63">
         <v>1.38</v>
@@ -13202,10 +13217,10 @@
         <v>2</v>
       </c>
       <c r="O64" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P64" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13393,10 +13408,10 @@
         <v>3</v>
       </c>
       <c r="O65" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P65" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q65">
         <v>5</v>
@@ -13584,10 +13599,10 @@
         <v>2</v>
       </c>
       <c r="O66" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q66">
         <v>9</v>
@@ -13775,10 +13790,10 @@
         <v>1</v>
       </c>
       <c r="O67" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P67" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -13966,10 +13981,10 @@
         <v>2</v>
       </c>
       <c r="O68" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14157,10 +14172,10 @@
         <v>3</v>
       </c>
       <c r="O69" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P69" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q69">
         <v>12</v>
@@ -14247,10 +14262,10 @@
         <v>0</v>
       </c>
       <c r="AS69">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT69">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU69">
         <v>1.17</v>
@@ -14348,10 +14363,10 @@
         <v>1</v>
       </c>
       <c r="O70" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P70" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q70">
         <v>1</v>
@@ -14438,7 +14453,7 @@
         <v>1.5</v>
       </c>
       <c r="AS70">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT70">
         <v>1.33</v>
@@ -14539,10 +14554,10 @@
         <v>4</v>
       </c>
       <c r="O71" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q71">
         <v>1</v>
@@ -14629,10 +14644,10 @@
         <v>0.25</v>
       </c>
       <c r="AS71">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT71">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU71">
         <v>1.16</v>
@@ -14730,10 +14745,10 @@
         <v>0</v>
       </c>
       <c r="O72" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P72" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q72">
         <v>5</v>
@@ -14921,10 +14936,10 @@
         <v>2</v>
       </c>
       <c r="O73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P73" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -15112,10 +15127,10 @@
         <v>1</v>
       </c>
       <c r="O74" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P74" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -15205,7 +15220,7 @@
         <v>1.33</v>
       </c>
       <c r="AT74">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU74">
         <v>1.25</v>
@@ -15303,10 +15318,10 @@
         <v>2</v>
       </c>
       <c r="O75" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P75" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15494,10 +15509,10 @@
         <v>2</v>
       </c>
       <c r="O76" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P76" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q76">
         <v>9</v>
@@ -15685,10 +15700,10 @@
         <v>4</v>
       </c>
       <c r="O77" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q77">
         <v>7</v>
@@ -15778,7 +15793,7 @@
         <v>2.18</v>
       </c>
       <c r="AT77">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU77">
         <v>1.42</v>
@@ -15876,10 +15891,10 @@
         <v>3</v>
       </c>
       <c r="O78" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P78" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q78">
         <v>9</v>
@@ -16067,10 +16082,10 @@
         <v>2</v>
       </c>
       <c r="O79" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P79" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q79">
         <v>2</v>
@@ -16258,10 +16273,10 @@
         <v>0</v>
       </c>
       <c r="O80" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P80" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q80">
         <v>6</v>
@@ -16449,10 +16464,10 @@
         <v>3</v>
       </c>
       <c r="O81" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16539,7 +16554,7 @@
         <v>0.6</v>
       </c>
       <c r="AS81">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT81">
         <v>0.88</v>
@@ -16640,10 +16655,10 @@
         <v>1</v>
       </c>
       <c r="O82" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P82" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q82">
         <v>17</v>
@@ -16730,7 +16745,7 @@
         <v>0.4</v>
       </c>
       <c r="AS82">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT82">
         <v>0.63</v>
@@ -16831,10 +16846,10 @@
         <v>4</v>
       </c>
       <c r="O83" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -16921,7 +16936,7 @@
         <v>1.2</v>
       </c>
       <c r="AS83">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT83">
         <v>1.33</v>
@@ -17022,10 +17037,10 @@
         <v>1</v>
       </c>
       <c r="O84" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P84" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17213,10 +17228,10 @@
         <v>7</v>
       </c>
       <c r="O85" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P85" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17306,7 +17321,7 @@
         <v>1.5</v>
       </c>
       <c r="AT85">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU85">
         <v>1.4</v>
@@ -17404,10 +17419,10 @@
         <v>0</v>
       </c>
       <c r="O86" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P86" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q86">
         <v>10</v>
@@ -17595,10 +17610,10 @@
         <v>1</v>
       </c>
       <c r="O87" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P87" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17786,10 +17801,10 @@
         <v>6</v>
       </c>
       <c r="O88" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P88" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q88">
         <v>9</v>
@@ -17879,7 +17894,7 @@
         <v>1.91</v>
       </c>
       <c r="AT88">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU88">
         <v>1.68</v>
@@ -17977,10 +17992,10 @@
         <v>0</v>
       </c>
       <c r="O89" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P89" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q89">
         <v>6</v>
@@ -18067,7 +18082,7 @@
         <v>0.8</v>
       </c>
       <c r="AS89">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT89">
         <v>1.33</v>
@@ -18168,10 +18183,10 @@
         <v>1</v>
       </c>
       <c r="O90" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q90">
         <v>12</v>
@@ -18359,10 +18374,10 @@
         <v>1</v>
       </c>
       <c r="O91" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P91" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q91">
         <v>7</v>
@@ -18550,10 +18565,10 @@
         <v>1</v>
       </c>
       <c r="O92" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P92" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -18741,10 +18756,10 @@
         <v>4</v>
       </c>
       <c r="O93" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q93">
         <v>8</v>
@@ -18834,7 +18849,7 @@
         <v>1</v>
       </c>
       <c r="AT93">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU93">
         <v>1.47</v>
@@ -18932,10 +18947,10 @@
         <v>2</v>
       </c>
       <c r="O94" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P94" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19123,10 +19138,10 @@
         <v>3</v>
       </c>
       <c r="O95" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P95" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q95">
         <v>6</v>
@@ -19216,7 +19231,7 @@
         <v>1</v>
       </c>
       <c r="AT95">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU95">
         <v>1.52</v>
@@ -19314,10 +19329,10 @@
         <v>0</v>
       </c>
       <c r="O96" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P96" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q96">
         <v>5</v>
@@ -19404,7 +19419,7 @@
         <v>0.83</v>
       </c>
       <c r="AS96">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT96">
         <v>1.33</v>
@@ -19505,10 +19520,10 @@
         <v>3</v>
       </c>
       <c r="O97" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P97" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q97">
         <v>10</v>
@@ -19696,10 +19711,10 @@
         <v>3</v>
       </c>
       <c r="O98" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P98" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q98">
         <v>7</v>
@@ -19887,10 +19902,10 @@
         <v>5</v>
       </c>
       <c r="O99" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q99">
         <v>7</v>
@@ -19980,7 +19995,7 @@
         <v>0.63</v>
       </c>
       <c r="AT99">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU99">
         <v>1.24</v>
@@ -20078,10 +20093,10 @@
         <v>0</v>
       </c>
       <c r="O100" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P100" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20168,7 +20183,7 @@
         <v>1.5</v>
       </c>
       <c r="AS100">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT100">
         <v>1.25</v>
@@ -20269,10 +20284,10 @@
         <v>0</v>
       </c>
       <c r="O101" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P101" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -20460,10 +20475,10 @@
         <v>2</v>
       </c>
       <c r="O102" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P102" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q102">
         <v>8</v>
@@ -20651,10 +20666,10 @@
         <v>3</v>
       </c>
       <c r="O103" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P103" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q103">
         <v>4</v>
@@ -20842,10 +20857,10 @@
         <v>6</v>
       </c>
       <c r="O104" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P104" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q104">
         <v>5</v>
@@ -21033,10 +21048,10 @@
         <v>0</v>
       </c>
       <c r="O105" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P105" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q105">
         <v>4</v>
@@ -21224,10 +21239,10 @@
         <v>2</v>
       </c>
       <c r="O106" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q106">
         <v>2</v>
@@ -21415,10 +21430,10 @@
         <v>8</v>
       </c>
       <c r="O107" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P107" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21508,7 +21523,7 @@
         <v>1.55</v>
       </c>
       <c r="AT107">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU107">
         <v>1.41</v>
@@ -21606,10 +21621,10 @@
         <v>2</v>
       </c>
       <c r="O108" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P108" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q108">
         <v>4</v>
@@ -21797,10 +21812,10 @@
         <v>0</v>
       </c>
       <c r="O109" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P109" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q109">
         <v>3</v>
@@ -21988,10 +22003,10 @@
         <v>1</v>
       </c>
       <c r="O110" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P110" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q110">
         <v>4</v>
@@ -22179,10 +22194,10 @@
         <v>3</v>
       </c>
       <c r="O111" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P111" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q111">
         <v>7</v>
@@ -22272,7 +22287,7 @@
         <v>2.58</v>
       </c>
       <c r="AT111">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU111">
         <v>1.42</v>
@@ -22370,10 +22385,10 @@
         <v>2</v>
       </c>
       <c r="O112" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P112" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q112">
         <v>5</v>
@@ -22460,10 +22475,10 @@
         <v>1.83</v>
       </c>
       <c r="AS112">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT112">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU112">
         <v>1.39</v>
@@ -22561,10 +22576,10 @@
         <v>3</v>
       </c>
       <c r="O113" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P113" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -22651,10 +22666,10 @@
         <v>1</v>
       </c>
       <c r="AS113">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT113">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU113">
         <v>1.27</v>
@@ -22752,10 +22767,10 @@
         <v>1</v>
       </c>
       <c r="O114" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P114" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q114">
         <v>10</v>
@@ -22943,10 +22958,10 @@
         <v>3</v>
       </c>
       <c r="O115" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P115" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23134,10 +23149,10 @@
         <v>0</v>
       </c>
       <c r="O116" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P116" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -23325,10 +23340,10 @@
         <v>1</v>
       </c>
       <c r="O117" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P117" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q117">
         <v>4</v>
@@ -23516,10 +23531,10 @@
         <v>3</v>
       </c>
       <c r="O118" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P118" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -23707,10 +23722,10 @@
         <v>2</v>
       </c>
       <c r="O119" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P119" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q119">
         <v>9</v>
@@ -23800,7 +23815,7 @@
         <v>2.17</v>
       </c>
       <c r="AT119">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU119">
         <v>1.4</v>
@@ -23898,10 +23913,10 @@
         <v>2</v>
       </c>
       <c r="O120" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P120" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q120">
         <v>5</v>
@@ -24089,10 +24104,10 @@
         <v>5</v>
       </c>
       <c r="O121" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P121" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24280,10 +24295,10 @@
         <v>4</v>
       </c>
       <c r="O122" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P122" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q122">
         <v>1</v>
@@ -24373,7 +24388,7 @@
         <v>1.33</v>
       </c>
       <c r="AT122">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU122">
         <v>1.32</v>
@@ -24471,10 +24486,10 @@
         <v>4</v>
       </c>
       <c r="O123" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P123" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q123">
         <v>9</v>
@@ -24561,10 +24576,10 @@
         <v>1.29</v>
       </c>
       <c r="AS123">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT123">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AU123">
         <v>1.31</v>
@@ -24662,10 +24677,10 @@
         <v>4</v>
       </c>
       <c r="O124" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P124" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q124">
         <v>10</v>
@@ -24752,7 +24767,7 @@
         <v>0.86</v>
       </c>
       <c r="AS124">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT124">
         <v>0.91</v>
@@ -24853,10 +24868,10 @@
         <v>3</v>
       </c>
       <c r="O125" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P125" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q125">
         <v>4</v>
@@ -24946,7 +24961,7 @@
         <v>2.18</v>
       </c>
       <c r="AT125">
-        <v>0.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU125">
         <v>1.61</v>
@@ -25044,10 +25059,10 @@
         <v>0</v>
       </c>
       <c r="O126" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P126" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q126">
         <v>5</v>
@@ -25235,10 +25250,10 @@
         <v>3</v>
       </c>
       <c r="O127" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P127" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -25325,7 +25340,7 @@
         <v>0.86</v>
       </c>
       <c r="AS127">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT127">
         <v>0.91</v>
@@ -25426,10 +25441,10 @@
         <v>2</v>
       </c>
       <c r="O128" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P128" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q128">
         <v>2</v>
@@ -25617,10 +25632,10 @@
         <v>2</v>
       </c>
       <c r="O129" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P129" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -25808,10 +25823,10 @@
         <v>4</v>
       </c>
       <c r="O130" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P130" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -25999,10 +26014,10 @@
         <v>4</v>
       </c>
       <c r="O131" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P131" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q131">
         <v>3</v>
@@ -26190,10 +26205,10 @@
         <v>4</v>
       </c>
       <c r="O132" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P132" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q132">
         <v>7</v>
@@ -26381,10 +26396,10 @@
         <v>2</v>
       </c>
       <c r="O133" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P133" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q133">
         <v>6</v>
@@ -26572,10 +26587,10 @@
         <v>3</v>
       </c>
       <c r="O134" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q134">
         <v>1</v>
@@ -26763,10 +26778,10 @@
         <v>2</v>
       </c>
       <c r="O135" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P135" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -26853,7 +26868,7 @@
         <v>1.13</v>
       </c>
       <c r="AS135">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT135">
         <v>0.91</v>
@@ -26954,10 +26969,10 @@
         <v>2</v>
       </c>
       <c r="O136" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -27145,10 +27160,10 @@
         <v>0</v>
       </c>
       <c r="O137" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P137" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q137">
         <v>8</v>
@@ -27238,7 +27253,7 @@
         <v>2.17</v>
       </c>
       <c r="AT137">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU137">
         <v>1.38</v>
@@ -27336,10 +27351,10 @@
         <v>3</v>
       </c>
       <c r="O138" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P138" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q138">
         <v>2</v>
@@ -27426,7 +27441,7 @@
         <v>1.33</v>
       </c>
       <c r="AS138">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT138">
         <v>1.25</v>
@@ -27527,10 +27542,10 @@
         <v>3</v>
       </c>
       <c r="O139" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -27718,10 +27733,10 @@
         <v>2</v>
       </c>
       <c r="O140" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q140">
         <v>10</v>
@@ -27909,10 +27924,10 @@
         <v>2</v>
       </c>
       <c r="O141" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P141" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q141">
         <v>12</v>
@@ -28100,10 +28115,10 @@
         <v>1</v>
       </c>
       <c r="O142" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P142" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q142">
         <v>10</v>
@@ -28291,10 +28306,10 @@
         <v>2</v>
       </c>
       <c r="O143" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P143" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28482,10 +28497,10 @@
         <v>4</v>
       </c>
       <c r="O144" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P144" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q144">
         <v>2</v>
@@ -28673,10 +28688,10 @@
         <v>1</v>
       </c>
       <c r="O145" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P145" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -28766,7 +28781,7 @@
         <v>1.55</v>
       </c>
       <c r="AT145">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU145">
         <v>1.55</v>
@@ -28864,10 +28879,10 @@
         <v>4</v>
       </c>
       <c r="O146" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P146" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q146">
         <v>8</v>
@@ -29055,10 +29070,10 @@
         <v>1</v>
       </c>
       <c r="O147" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P147" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -29246,10 +29261,10 @@
         <v>0</v>
       </c>
       <c r="O148" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P148" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q148">
         <v>5</v>
@@ -29437,10 +29452,10 @@
         <v>2</v>
       </c>
       <c r="O149" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P149" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q149">
         <v>2</v>
@@ -29628,10 +29643,10 @@
         <v>4</v>
       </c>
       <c r="O150" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P150" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q150">
         <v>6</v>
@@ -29721,7 +29736,7 @@
         <v>2.09</v>
       </c>
       <c r="AT150">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU150">
         <v>1.62</v>
@@ -29819,10 +29834,10 @@
         <v>2</v>
       </c>
       <c r="O151" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P151" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q151">
         <v>2</v>
@@ -30010,10 +30025,10 @@
         <v>1</v>
       </c>
       <c r="O152" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P152" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q152">
         <v>4</v>
@@ -30100,7 +30115,7 @@
         <v>1</v>
       </c>
       <c r="AS152">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT152">
         <v>1.33</v>
@@ -30201,10 +30216,10 @@
         <v>2</v>
       </c>
       <c r="O153" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P153" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q153">
         <v>11</v>
@@ -30392,10 +30407,10 @@
         <v>1</v>
       </c>
       <c r="O154" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P154" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q154">
         <v>10</v>
@@ -30583,10 +30598,10 @@
         <v>0</v>
       </c>
       <c r="O155" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P155" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q155">
         <v>4</v>
@@ -30774,10 +30789,10 @@
         <v>3</v>
       </c>
       <c r="O156" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P156" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q156">
         <v>5</v>
@@ -30965,10 +30980,10 @@
         <v>5</v>
       </c>
       <c r="O157" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P157" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -31110,6 +31125,770 @@
       </c>
       <c r="BK157">
         <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="1:63">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>6167008</v>
+      </c>
+      <c r="C158" t="s">
+        <v>63</v>
+      </c>
+      <c r="D158" t="s">
+        <v>64</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45129.72916666666</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+      <c r="G158" t="s">
+        <v>75</v>
+      </c>
+      <c r="H158" t="s">
+        <v>70</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158">
+        <v>2</v>
+      </c>
+      <c r="M158">
+        <v>2</v>
+      </c>
+      <c r="N158">
+        <v>4</v>
+      </c>
+      <c r="O158" t="s">
+        <v>185</v>
+      </c>
+      <c r="P158" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q158">
+        <v>4</v>
+      </c>
+      <c r="R158">
+        <v>6</v>
+      </c>
+      <c r="S158">
+        <v>10</v>
+      </c>
+      <c r="T158">
+        <v>3.05</v>
+      </c>
+      <c r="U158">
+        <v>2.05</v>
+      </c>
+      <c r="V158">
+        <v>3.4</v>
+      </c>
+      <c r="W158">
+        <v>1.45</v>
+      </c>
+      <c r="X158">
+        <v>2.6</v>
+      </c>
+      <c r="Y158">
+        <v>2.95</v>
+      </c>
+      <c r="Z158">
+        <v>1.35</v>
+      </c>
+      <c r="AA158">
+        <v>6.75</v>
+      </c>
+      <c r="AB158">
+        <v>1.08</v>
+      </c>
+      <c r="AC158">
+        <v>2.4</v>
+      </c>
+      <c r="AD158">
+        <v>3</v>
+      </c>
+      <c r="AE158">
+        <v>2.75</v>
+      </c>
+      <c r="AF158">
+        <v>1.04</v>
+      </c>
+      <c r="AG158">
+        <v>10.25</v>
+      </c>
+      <c r="AH158">
+        <v>1.33</v>
+      </c>
+      <c r="AI158">
+        <v>3.1</v>
+      </c>
+      <c r="AJ158">
+        <v>2</v>
+      </c>
+      <c r="AK158">
+        <v>1.72</v>
+      </c>
+      <c r="AL158">
+        <v>1.8</v>
+      </c>
+      <c r="AM158">
+        <v>1.9</v>
+      </c>
+      <c r="AN158">
+        <v>1.4</v>
+      </c>
+      <c r="AO158">
+        <v>1.28</v>
+      </c>
+      <c r="AP158">
+        <v>1.47</v>
+      </c>
+      <c r="AQ158">
+        <v>1.13</v>
+      </c>
+      <c r="AR158">
+        <v>1.25</v>
+      </c>
+      <c r="AS158">
+        <v>1.11</v>
+      </c>
+      <c r="AT158">
+        <v>1.22</v>
+      </c>
+      <c r="AU158">
+        <v>1.36</v>
+      </c>
+      <c r="AV158">
+        <v>1.8</v>
+      </c>
+      <c r="AW158">
+        <v>3.16</v>
+      </c>
+      <c r="AX158">
+        <v>1.91</v>
+      </c>
+      <c r="AY158">
+        <v>6.5</v>
+      </c>
+      <c r="AZ158">
+        <v>2.38</v>
+      </c>
+      <c r="BA158">
+        <v>1.24</v>
+      </c>
+      <c r="BB158">
+        <v>1.48</v>
+      </c>
+      <c r="BC158">
+        <v>1.76</v>
+      </c>
+      <c r="BD158">
+        <v>2.19</v>
+      </c>
+      <c r="BE158">
+        <v>2.7</v>
+      </c>
+      <c r="BF158">
+        <v>8</v>
+      </c>
+      <c r="BG158">
+        <v>7</v>
+      </c>
+      <c r="BH158">
+        <v>13</v>
+      </c>
+      <c r="BI158">
+        <v>10</v>
+      </c>
+      <c r="BJ158">
+        <v>21</v>
+      </c>
+      <c r="BK158">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" spans="1:63">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>6167011</v>
+      </c>
+      <c r="C159" t="s">
+        <v>63</v>
+      </c>
+      <c r="D159" t="s">
+        <v>64</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45129.72916666666</v>
+      </c>
+      <c r="F159">
+        <v>1</v>
+      </c>
+      <c r="G159" t="s">
+        <v>72</v>
+      </c>
+      <c r="H159" t="s">
+        <v>69</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>2</v>
+      </c>
+      <c r="K159">
+        <v>2</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <v>2</v>
+      </c>
+      <c r="N159">
+        <v>2</v>
+      </c>
+      <c r="O159" t="s">
+        <v>95</v>
+      </c>
+      <c r="P159" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q159">
+        <v>7</v>
+      </c>
+      <c r="R159">
+        <v>2</v>
+      </c>
+      <c r="S159">
+        <v>9</v>
+      </c>
+      <c r="T159">
+        <v>2.25</v>
+      </c>
+      <c r="U159">
+        <v>2.1</v>
+      </c>
+      <c r="V159">
+        <v>5</v>
+      </c>
+      <c r="W159">
+        <v>1.45</v>
+      </c>
+      <c r="X159">
+        <v>2.6</v>
+      </c>
+      <c r="Y159">
+        <v>3.05</v>
+      </c>
+      <c r="Z159">
+        <v>1.32</v>
+      </c>
+      <c r="AA159">
+        <v>7.25</v>
+      </c>
+      <c r="AB159">
+        <v>1.06</v>
+      </c>
+      <c r="AC159">
+        <v>1.62</v>
+      </c>
+      <c r="AD159">
+        <v>3.6</v>
+      </c>
+      <c r="AE159">
+        <v>4.45</v>
+      </c>
+      <c r="AF159">
+        <v>1.04</v>
+      </c>
+      <c r="AG159">
+        <v>9</v>
+      </c>
+      <c r="AH159">
+        <v>1.36</v>
+      </c>
+      <c r="AI159">
+        <v>2.95</v>
+      </c>
+      <c r="AJ159">
+        <v>2.16</v>
+      </c>
+      <c r="AK159">
+        <v>1.68</v>
+      </c>
+      <c r="AL159">
+        <v>2.05</v>
+      </c>
+      <c r="AM159">
+        <v>1.72</v>
+      </c>
+      <c r="AN159">
+        <v>1.11</v>
+      </c>
+      <c r="AO159">
+        <v>1.22</v>
+      </c>
+      <c r="AP159">
+        <v>2.15</v>
+      </c>
+      <c r="AQ159">
+        <v>1.75</v>
+      </c>
+      <c r="AR159">
+        <v>0.25</v>
+      </c>
+      <c r="AS159">
+        <v>1.56</v>
+      </c>
+      <c r="AT159">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU159">
+        <v>1.73</v>
+      </c>
+      <c r="AV159">
+        <v>1</v>
+      </c>
+      <c r="AW159">
+        <v>2.73</v>
+      </c>
+      <c r="AX159">
+        <v>1.39</v>
+      </c>
+      <c r="AY159">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ159">
+        <v>3.45</v>
+      </c>
+      <c r="BA159">
+        <v>1.27</v>
+      </c>
+      <c r="BB159">
+        <v>1.58</v>
+      </c>
+      <c r="BC159">
+        <v>1.98</v>
+      </c>
+      <c r="BD159">
+        <v>2.46</v>
+      </c>
+      <c r="BE159">
+        <v>3</v>
+      </c>
+      <c r="BF159">
+        <v>4</v>
+      </c>
+      <c r="BG159">
+        <v>6</v>
+      </c>
+      <c r="BH159">
+        <v>9</v>
+      </c>
+      <c r="BI159">
+        <v>2</v>
+      </c>
+      <c r="BJ159">
+        <v>13</v>
+      </c>
+      <c r="BK159">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:63">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>6167009</v>
+      </c>
+      <c r="C160" t="s">
+        <v>63</v>
+      </c>
+      <c r="D160" t="s">
+        <v>64</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45130.72916666666</v>
+      </c>
+      <c r="F160">
+        <v>1</v>
+      </c>
+      <c r="G160" t="s">
+        <v>71</v>
+      </c>
+      <c r="H160" t="s">
+        <v>65</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>2</v>
+      </c>
+      <c r="K160">
+        <v>3</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+      <c r="M160">
+        <v>2</v>
+      </c>
+      <c r="N160">
+        <v>3</v>
+      </c>
+      <c r="O160" t="s">
+        <v>163</v>
+      </c>
+      <c r="P160" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q160">
+        <v>7</v>
+      </c>
+      <c r="R160">
+        <v>4</v>
+      </c>
+      <c r="S160">
+        <v>11</v>
+      </c>
+      <c r="T160">
+        <v>2.15</v>
+      </c>
+      <c r="U160">
+        <v>2.2</v>
+      </c>
+      <c r="V160">
+        <v>5.25</v>
+      </c>
+      <c r="W160">
+        <v>1.38</v>
+      </c>
+      <c r="X160">
+        <v>2.85</v>
+      </c>
+      <c r="Y160">
+        <v>2.87</v>
+      </c>
+      <c r="Z160">
+        <v>1.41</v>
+      </c>
+      <c r="AA160">
+        <v>6</v>
+      </c>
+      <c r="AB160">
+        <v>1.11</v>
+      </c>
+      <c r="AC160">
+        <v>1.53</v>
+      </c>
+      <c r="AD160">
+        <v>3.7</v>
+      </c>
+      <c r="AE160">
+        <v>5.5</v>
+      </c>
+      <c r="AF160">
+        <v>1.02</v>
+      </c>
+      <c r="AG160">
+        <v>12.75</v>
+      </c>
+      <c r="AH160">
+        <v>1.25</v>
+      </c>
+      <c r="AI160">
+        <v>3.5</v>
+      </c>
+      <c r="AJ160">
+        <v>1.75</v>
+      </c>
+      <c r="AK160">
+        <v>1.87</v>
+      </c>
+      <c r="AL160">
+        <v>1.85</v>
+      </c>
+      <c r="AM160">
+        <v>1.85</v>
+      </c>
+      <c r="AN160">
+        <v>1.16</v>
+      </c>
+      <c r="AO160">
+        <v>1.2</v>
+      </c>
+      <c r="AP160">
+        <v>2.2</v>
+      </c>
+      <c r="AQ160">
+        <v>1.55</v>
+      </c>
+      <c r="AR160">
+        <v>1.5</v>
+      </c>
+      <c r="AS160">
+        <v>1.42</v>
+      </c>
+      <c r="AT160">
+        <v>1.67</v>
+      </c>
+      <c r="AU160">
+        <v>1.43</v>
+      </c>
+      <c r="AV160">
+        <v>1.1</v>
+      </c>
+      <c r="AW160">
+        <v>2.53</v>
+      </c>
+      <c r="AX160">
+        <v>1.36</v>
+      </c>
+      <c r="AY160">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ160">
+        <v>3.8</v>
+      </c>
+      <c r="BA160">
+        <v>1.32</v>
+      </c>
+      <c r="BB160">
+        <v>1.62</v>
+      </c>
+      <c r="BC160">
+        <v>1.99</v>
+      </c>
+      <c r="BD160">
+        <v>2.53</v>
+      </c>
+      <c r="BE160">
+        <v>3.4</v>
+      </c>
+      <c r="BF160">
+        <v>12</v>
+      </c>
+      <c r="BG160">
+        <v>5</v>
+      </c>
+      <c r="BH160">
+        <v>6</v>
+      </c>
+      <c r="BI160">
+        <v>5</v>
+      </c>
+      <c r="BJ160">
+        <v>18</v>
+      </c>
+      <c r="BK160">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:63">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>6167005</v>
+      </c>
+      <c r="C161" t="s">
+        <v>63</v>
+      </c>
+      <c r="D161" t="s">
+        <v>64</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45130.72916666666</v>
+      </c>
+      <c r="F161">
+        <v>1</v>
+      </c>
+      <c r="G161" t="s">
+        <v>81</v>
+      </c>
+      <c r="H161" t="s">
+        <v>67</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+      <c r="O161" t="s">
+        <v>95</v>
+      </c>
+      <c r="P161" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q161">
+        <v>-1</v>
+      </c>
+      <c r="R161">
+        <v>-1</v>
+      </c>
+      <c r="S161">
+        <v>-1</v>
+      </c>
+      <c r="T161">
+        <v>2.95</v>
+      </c>
+      <c r="U161">
+        <v>2</v>
+      </c>
+      <c r="V161">
+        <v>3.6</v>
+      </c>
+      <c r="W161">
+        <v>1.46</v>
+      </c>
+      <c r="X161">
+        <v>2.55</v>
+      </c>
+      <c r="Y161">
+        <v>3.1</v>
+      </c>
+      <c r="Z161">
+        <v>1.32</v>
+      </c>
+      <c r="AA161">
+        <v>8</v>
+      </c>
+      <c r="AB161">
+        <v>1.05</v>
+      </c>
+      <c r="AC161">
+        <v>2.5</v>
+      </c>
+      <c r="AD161">
+        <v>3</v>
+      </c>
+      <c r="AE161">
+        <v>2.8</v>
+      </c>
+      <c r="AF161">
+        <v>1.07</v>
+      </c>
+      <c r="AG161">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="AH161">
+        <v>1.36</v>
+      </c>
+      <c r="AI161">
+        <v>2.95</v>
+      </c>
+      <c r="AJ161">
+        <v>2.16</v>
+      </c>
+      <c r="AK161">
+        <v>1.66</v>
+      </c>
+      <c r="AL161">
+        <v>1.85</v>
+      </c>
+      <c r="AM161">
+        <v>1.9</v>
+      </c>
+      <c r="AN161">
+        <v>1.3</v>
+      </c>
+      <c r="AO161">
+        <v>1.28</v>
+      </c>
+      <c r="AP161">
+        <v>1.5</v>
+      </c>
+      <c r="AQ161">
+        <v>0</v>
+      </c>
+      <c r="AR161">
+        <v>1.55</v>
+      </c>
+      <c r="AS161">
+        <v>1</v>
+      </c>
+      <c r="AT161">
+        <v>1.5</v>
+      </c>
+      <c r="AU161">
+        <v>0</v>
+      </c>
+      <c r="AV161">
+        <v>1.48</v>
+      </c>
+      <c r="AW161">
+        <v>1.48</v>
+      </c>
+      <c r="AX161">
+        <v>0</v>
+      </c>
+      <c r="AY161">
+        <v>0</v>
+      </c>
+      <c r="AZ161">
+        <v>0</v>
+      </c>
+      <c r="BA161">
+        <v>0</v>
+      </c>
+      <c r="BB161">
+        <v>0</v>
+      </c>
+      <c r="BC161">
+        <v>0</v>
+      </c>
+      <c r="BD161">
+        <v>0</v>
+      </c>
+      <c r="BE161">
+        <v>0</v>
+      </c>
+      <c r="BF161">
+        <v>-1</v>
+      </c>
+      <c r="BG161">
+        <v>-1</v>
+      </c>
+      <c r="BH161">
+        <v>-1</v>
+      </c>
+      <c r="BI161">
+        <v>-1</v>
+      </c>
+      <c r="BJ161">
+        <v>-1</v>
+      </c>
+      <c r="BK161">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Colombia Categoria Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Colombia Categoria Primera B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="253">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1134,7 +1134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK161"/>
+  <dimension ref="A1:BK162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3378,7 +3378,7 @@
         <v>1.11</v>
       </c>
       <c r="AT12">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT15">
         <v>1.22</v>
@@ -5858,7 +5858,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT25">
         <v>1.33</v>
@@ -6243,7 +6243,7 @@
         <v>2.17</v>
       </c>
       <c r="AT27">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU27">
         <v>1.4</v>
@@ -7386,7 +7386,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT33">
         <v>1.67</v>
@@ -8726,7 +8726,7 @@
         <v>2.58</v>
       </c>
       <c r="AT40">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU40">
         <v>1.9</v>
@@ -11588,7 +11588,7 @@
         <v>0.5</v>
       </c>
       <c r="AS55">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT55">
         <v>1.33</v>
@@ -11973,7 +11973,7 @@
         <v>1.56</v>
       </c>
       <c r="AT57">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU57">
         <v>1.6</v>
@@ -13689,7 +13689,7 @@
         <v>0.25</v>
       </c>
       <c r="AS66">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT66">
         <v>0.63</v>
@@ -16175,7 +16175,7 @@
         <v>2.09</v>
       </c>
       <c r="AT79">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU79">
         <v>1.51</v>
@@ -17891,7 +17891,7 @@
         <v>0.4</v>
       </c>
       <c r="AS88">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT88">
         <v>0.5600000000000001</v>
@@ -19040,7 +19040,7 @@
         <v>1.55</v>
       </c>
       <c r="AT94">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU94">
         <v>1.24</v>
@@ -20565,7 +20565,7 @@
         <v>2.17</v>
       </c>
       <c r="AS102">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT102">
         <v>1.27</v>
@@ -21905,7 +21905,7 @@
         <v>0.89</v>
       </c>
       <c r="AT109">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU109">
         <v>1.51</v>
@@ -22857,7 +22857,7 @@
         <v>1</v>
       </c>
       <c r="AS114">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT114">
         <v>0.88</v>
@@ -25152,7 +25152,7 @@
         <v>1.45</v>
       </c>
       <c r="AT126">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU126">
         <v>1.63</v>
@@ -25913,7 +25913,7 @@
         <v>1.38</v>
       </c>
       <c r="AS130">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT130">
         <v>1.25</v>
@@ -28396,7 +28396,7 @@
         <v>0.78</v>
       </c>
       <c r="AS143">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT143">
         <v>1.33</v>
@@ -28969,7 +28969,7 @@
         <v>1.3</v>
       </c>
       <c r="AS146">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT146">
         <v>1.27</v>
@@ -31750,13 +31750,13 @@
         <v>95</v>
       </c>
       <c r="Q161">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R161">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S161">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="T161">
         <v>2.95</v>
@@ -31873,22 +31873,213 @@
         <v>0</v>
       </c>
       <c r="BF161">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BG161">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH161">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BI161">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BJ161">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="BK161">
-        <v>-1</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:63">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>6167004</v>
+      </c>
+      <c r="C162" t="s">
+        <v>63</v>
+      </c>
+      <c r="D162" t="s">
+        <v>64</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45132.89583333334</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+      <c r="G162" t="s">
+        <v>78</v>
+      </c>
+      <c r="H162" t="s">
+        <v>80</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>1</v>
+      </c>
+      <c r="O162" t="s">
+        <v>124</v>
+      </c>
+      <c r="P162" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q162">
+        <v>5</v>
+      </c>
+      <c r="R162">
+        <v>9</v>
+      </c>
+      <c r="S162">
+        <v>14</v>
+      </c>
+      <c r="T162">
+        <v>2.63</v>
+      </c>
+      <c r="U162">
+        <v>2</v>
+      </c>
+      <c r="V162">
+        <v>4.33</v>
+      </c>
+      <c r="W162">
+        <v>1.44</v>
+      </c>
+      <c r="X162">
+        <v>2.62</v>
+      </c>
+      <c r="Y162">
+        <v>3</v>
+      </c>
+      <c r="Z162">
+        <v>1.36</v>
+      </c>
+      <c r="AA162">
+        <v>7.5</v>
+      </c>
+      <c r="AB162">
+        <v>1.07</v>
+      </c>
+      <c r="AC162">
+        <v>2.05</v>
+      </c>
+      <c r="AD162">
+        <v>3.1</v>
+      </c>
+      <c r="AE162">
+        <v>3.55</v>
+      </c>
+      <c r="AF162">
+        <v>1.08</v>
+      </c>
+      <c r="AG162">
+        <v>6.5</v>
+      </c>
+      <c r="AH162">
+        <v>1.42</v>
+      </c>
+      <c r="AI162">
+        <v>2.62</v>
+      </c>
+      <c r="AJ162">
+        <v>2.35</v>
+      </c>
+      <c r="AK162">
+        <v>1.55</v>
+      </c>
+      <c r="AL162">
+        <v>2</v>
+      </c>
+      <c r="AM162">
+        <v>1.73</v>
+      </c>
+      <c r="AN162">
+        <v>1.25</v>
+      </c>
+      <c r="AO162">
+        <v>1.35</v>
+      </c>
+      <c r="AP162">
+        <v>1.78</v>
+      </c>
+      <c r="AQ162">
+        <v>1.91</v>
+      </c>
+      <c r="AR162">
+        <v>0.63</v>
+      </c>
+      <c r="AS162">
+        <v>2</v>
+      </c>
+      <c r="AT162">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU162">
+        <v>1.74</v>
+      </c>
+      <c r="AV162">
+        <v>1.04</v>
+      </c>
+      <c r="AW162">
+        <v>2.78</v>
+      </c>
+      <c r="AX162">
+        <v>1.33</v>
+      </c>
+      <c r="AY162">
+        <v>10</v>
+      </c>
+      <c r="AZ162">
+        <v>3.74</v>
+      </c>
+      <c r="BA162">
+        <v>1.48</v>
+      </c>
+      <c r="BB162">
+        <v>1.37</v>
+      </c>
+      <c r="BC162">
+        <v>1.72</v>
+      </c>
+      <c r="BD162">
+        <v>2.13</v>
+      </c>
+      <c r="BE162">
+        <v>3.2</v>
+      </c>
+      <c r="BF162">
+        <v>3</v>
+      </c>
+      <c r="BG162">
+        <v>4</v>
+      </c>
+      <c r="BH162">
+        <v>4</v>
+      </c>
+      <c r="BI162">
+        <v>1</v>
+      </c>
+      <c r="BJ162">
+        <v>7</v>
+      </c>
+      <c r="BK162">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Colombia Categoria Primera B_2023.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Colombia Categoria Primera B_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="258">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -574,6 +574,18 @@
     <t>['26', '68']</t>
   </si>
   <si>
+    <t>['14', '90+6']</t>
+  </si>
+  <si>
+    <t>['77', '80']</t>
+  </si>
+  <si>
+    <t>['72']</t>
+  </si>
+  <si>
+    <t>['35', '42']</t>
+  </si>
+  <si>
     <t>['47', '90+7']</t>
   </si>
   <si>
@@ -773,6 +785,9 @@
   </si>
   <si>
     <t>['20', '30']</t>
+  </si>
+  <si>
+    <t>['39']</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1149,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK162"/>
+  <dimension ref="A1:BK169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1378,7 +1393,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q2">
         <v>3</v>
@@ -1465,10 +1480,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT2">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1656,10 +1671,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT3">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1847,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT4">
         <v>0.91</v>
@@ -2038,10 +2053,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT5">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2142,7 +2157,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2229,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT6">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2333,7 +2348,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2423,7 +2438,7 @@
         <v>1</v>
       </c>
       <c r="AT7">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2524,7 +2539,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2906,7 +2921,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -3670,7 +3685,7 @@
         <v>94</v>
       </c>
       <c r="P14" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3861,7 +3876,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q15">
         <v>9</v>
@@ -4139,10 +4154,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT16">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4243,7 +4258,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4330,7 +4345,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT17">
         <v>0.5600000000000001</v>
@@ -4434,7 +4449,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4521,7 +4536,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT18">
         <v>0.91</v>
@@ -4715,7 +4730,7 @@
         <v>1.11</v>
       </c>
       <c r="AT19">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU19">
         <v>0.75</v>
@@ -4903,10 +4918,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT20">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU20">
         <v>0.68</v>
@@ -5094,10 +5109,10 @@
         <v>1</v>
       </c>
       <c r="AS21">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT21">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU21">
         <v>1.37</v>
@@ -5288,7 +5303,7 @@
         <v>1</v>
       </c>
       <c r="AT22">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU22">
         <v>1.77</v>
@@ -5476,7 +5491,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT23">
         <v>0.91</v>
@@ -5962,7 +5977,7 @@
         <v>104</v>
       </c>
       <c r="P26" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -6052,7 +6067,7 @@
         <v>2.58</v>
       </c>
       <c r="AT26">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU26">
         <v>1.9</v>
@@ -6240,7 +6255,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT27">
         <v>0.5600000000000001</v>
@@ -6344,7 +6359,7 @@
         <v>106</v>
       </c>
       <c r="P28" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6434,7 +6449,7 @@
         <v>1.56</v>
       </c>
       <c r="AT28">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU28">
         <v>1.24</v>
@@ -6726,7 +6741,7 @@
         <v>108</v>
       </c>
       <c r="P30" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q30">
         <v>2</v>
@@ -6813,7 +6828,7 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT30">
         <v>1.22</v>
@@ -6917,7 +6932,7 @@
         <v>95</v>
       </c>
       <c r="P31" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7004,7 +7019,7 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT31">
         <v>1.33</v>
@@ -7195,10 +7210,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT32">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU32">
         <v>1.62</v>
@@ -7490,7 +7505,7 @@
         <v>95</v>
       </c>
       <c r="P34" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q34">
         <v>1</v>
@@ -7577,10 +7592,10 @@
         <v>0.5</v>
       </c>
       <c r="AS34">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT34">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU34">
         <v>1.17</v>
@@ -7768,10 +7783,10 @@
         <v>0.5</v>
       </c>
       <c r="AS35">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT35">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU35">
         <v>1.32</v>
@@ -7872,7 +7887,7 @@
         <v>112</v>
       </c>
       <c r="P36" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7959,7 +7974,7 @@
         <v>0.5</v>
       </c>
       <c r="AS36">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT36">
         <v>0.5600000000000001</v>
@@ -8153,7 +8168,7 @@
         <v>1.33</v>
       </c>
       <c r="AT37">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU37">
         <v>1.07</v>
@@ -8344,7 +8359,7 @@
         <v>1.55</v>
       </c>
       <c r="AT38">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU38">
         <v>0.32</v>
@@ -8827,7 +8842,7 @@
         <v>95</v>
       </c>
       <c r="P41" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q41">
         <v>10</v>
@@ -9018,7 +9033,7 @@
         <v>95</v>
       </c>
       <c r="P42" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -9105,7 +9120,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT42">
         <v>1.5</v>
@@ -9209,7 +9224,7 @@
         <v>115</v>
       </c>
       <c r="P43" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q43">
         <v>5</v>
@@ -9296,7 +9311,7 @@
         <v>2</v>
       </c>
       <c r="AS43">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT43">
         <v>1.33</v>
@@ -9400,7 +9415,7 @@
         <v>116</v>
       </c>
       <c r="P44" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -9487,10 +9502,10 @@
         <v>1.33</v>
       </c>
       <c r="AS44">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT44">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU44">
         <v>1</v>
@@ -9678,10 +9693,10 @@
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT45">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU45">
         <v>1.41</v>
@@ -10251,7 +10266,7 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT48">
         <v>1.67</v>
@@ -10355,7 +10370,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10442,7 +10457,7 @@
         <v>1.67</v>
       </c>
       <c r="AS49">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT49">
         <v>1.33</v>
@@ -10827,7 +10842,7 @@
         <v>2.58</v>
       </c>
       <c r="AT51">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU51">
         <v>1.6</v>
@@ -10928,7 +10943,7 @@
         <v>123</v>
       </c>
       <c r="P52" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11209,7 +11224,7 @@
         <v>1.42</v>
       </c>
       <c r="AT53">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU53">
         <v>1.3</v>
@@ -11400,7 +11415,7 @@
         <v>1.11</v>
       </c>
       <c r="AT54">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU54">
         <v>1.08</v>
@@ -11782,7 +11797,7 @@
         <v>1.55</v>
       </c>
       <c r="AT56">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU56">
         <v>0.87</v>
@@ -12265,7 +12280,7 @@
         <v>95</v>
       </c>
       <c r="P59" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12355,7 +12370,7 @@
         <v>1.33</v>
       </c>
       <c r="AT59">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU59">
         <v>1.12</v>
@@ -12543,10 +12558,10 @@
         <v>1.33</v>
       </c>
       <c r="AS60">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT60">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU60">
         <v>1.49</v>
@@ -12647,7 +12662,7 @@
         <v>129</v>
       </c>
       <c r="P61" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -12734,7 +12749,7 @@
         <v>0.33</v>
       </c>
       <c r="AS61">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT61">
         <v>1.33</v>
@@ -12925,7 +12940,7 @@
         <v>1.33</v>
       </c>
       <c r="AS62">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT62">
         <v>0.91</v>
@@ -13029,7 +13044,7 @@
         <v>130</v>
       </c>
       <c r="P63" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q63">
         <v>6</v>
@@ -13116,7 +13131,7 @@
         <v>2</v>
       </c>
       <c r="AS63">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT63">
         <v>1.5</v>
@@ -13220,7 +13235,7 @@
         <v>95</v>
       </c>
       <c r="P64" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13498,7 +13513,7 @@
         <v>0.33</v>
       </c>
       <c r="AS65">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT65">
         <v>1.33</v>
@@ -13602,7 +13617,7 @@
         <v>132</v>
       </c>
       <c r="P66" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q66">
         <v>9</v>
@@ -13692,7 +13707,7 @@
         <v>2</v>
       </c>
       <c r="AT66">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU66">
         <v>1.54</v>
@@ -13880,10 +13895,10 @@
         <v>0</v>
       </c>
       <c r="AS67">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT67">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU67">
         <v>1.4</v>
@@ -13984,7 +13999,7 @@
         <v>133</v>
       </c>
       <c r="P68" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q68">
         <v>5</v>
@@ -14071,10 +14086,10 @@
         <v>1.25</v>
       </c>
       <c r="AS68">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT68">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU68">
         <v>1.76</v>
@@ -14175,7 +14190,7 @@
         <v>95</v>
       </c>
       <c r="P69" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q69">
         <v>12</v>
@@ -14557,7 +14572,7 @@
         <v>135</v>
       </c>
       <c r="P71" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q71">
         <v>1</v>
@@ -14835,7 +14850,7 @@
         <v>1</v>
       </c>
       <c r="AS72">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT72">
         <v>0.91</v>
@@ -14939,7 +14954,7 @@
         <v>95</v>
       </c>
       <c r="P73" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -15029,7 +15044,7 @@
         <v>0.89</v>
       </c>
       <c r="AT73">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU73">
         <v>1.68</v>
@@ -15130,7 +15145,7 @@
         <v>95</v>
       </c>
       <c r="P74" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -15321,7 +15336,7 @@
         <v>136</v>
       </c>
       <c r="P75" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15411,7 +15426,7 @@
         <v>1</v>
       </c>
       <c r="AT75">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU75">
         <v>1.37</v>
@@ -15703,7 +15718,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q77">
         <v>7</v>
@@ -15790,7 +15805,7 @@
         <v>0.75</v>
       </c>
       <c r="AS77">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT77">
         <v>1.67</v>
@@ -15894,7 +15909,7 @@
         <v>139</v>
       </c>
       <c r="P78" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q78">
         <v>9</v>
@@ -15984,7 +15999,7 @@
         <v>2.58</v>
       </c>
       <c r="AT78">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU78">
         <v>1.31</v>
@@ -16172,7 +16187,7 @@
         <v>0</v>
       </c>
       <c r="AS79">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT79">
         <v>0.5600000000000001</v>
@@ -16363,7 +16378,7 @@
         <v>1</v>
       </c>
       <c r="AS80">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT80">
         <v>1.33</v>
@@ -16467,7 +16482,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -16557,7 +16572,7 @@
         <v>1.11</v>
       </c>
       <c r="AT81">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU81">
         <v>1.15</v>
@@ -16748,7 +16763,7 @@
         <v>1.56</v>
       </c>
       <c r="AT82">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU82">
         <v>1.5</v>
@@ -16849,7 +16864,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -17040,7 +17055,7 @@
         <v>95</v>
       </c>
       <c r="P84" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q84">
         <v>4</v>
@@ -17127,7 +17142,7 @@
         <v>0.25</v>
       </c>
       <c r="AS84">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT84">
         <v>1.33</v>
@@ -17231,7 +17246,7 @@
         <v>143</v>
       </c>
       <c r="P85" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17318,7 +17333,7 @@
         <v>1.5</v>
       </c>
       <c r="AS85">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT85">
         <v>1.22</v>
@@ -17509,7 +17524,7 @@
         <v>1</v>
       </c>
       <c r="AS86">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT86">
         <v>0.91</v>
@@ -17613,7 +17628,7 @@
         <v>95</v>
       </c>
       <c r="P87" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q87">
         <v>7</v>
@@ -17700,10 +17715,10 @@
         <v>1.2</v>
       </c>
       <c r="AS87">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT87">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU87">
         <v>1.27</v>
@@ -17804,7 +17819,7 @@
         <v>144</v>
       </c>
       <c r="P88" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q88">
         <v>9</v>
@@ -18186,7 +18201,7 @@
         <v>95</v>
       </c>
       <c r="P90" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q90">
         <v>12</v>
@@ -18276,7 +18291,7 @@
         <v>0.89</v>
       </c>
       <c r="AT90">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU90">
         <v>1.56</v>
@@ -18568,7 +18583,7 @@
         <v>95</v>
       </c>
       <c r="P92" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q92">
         <v>3</v>
@@ -18759,7 +18774,7 @@
         <v>146</v>
       </c>
       <c r="P93" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q93">
         <v>8</v>
@@ -18950,7 +18965,7 @@
         <v>95</v>
       </c>
       <c r="P94" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19141,7 +19156,7 @@
         <v>95</v>
       </c>
       <c r="P95" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q95">
         <v>6</v>
@@ -19228,7 +19243,7 @@
         <v>0.6</v>
       </c>
       <c r="AS95">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT95">
         <v>1.67</v>
@@ -19523,7 +19538,7 @@
         <v>147</v>
       </c>
       <c r="P97" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q97">
         <v>10</v>
@@ -19610,10 +19625,10 @@
         <v>0.4</v>
       </c>
       <c r="AS97">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT97">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU97">
         <v>1.5</v>
@@ -19801,10 +19816,10 @@
         <v>0.83</v>
       </c>
       <c r="AS98">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT98">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU98">
         <v>1.44</v>
@@ -19905,7 +19920,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q99">
         <v>7</v>
@@ -19992,7 +20007,7 @@
         <v>1.2</v>
       </c>
       <c r="AS99">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT99">
         <v>1.22</v>
@@ -20186,7 +20201,7 @@
         <v>1.56</v>
       </c>
       <c r="AT100">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU100">
         <v>1.73</v>
@@ -20374,10 +20389,10 @@
         <v>1</v>
       </c>
       <c r="AS101">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT101">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU101">
         <v>1.63</v>
@@ -20568,7 +20583,7 @@
         <v>2</v>
       </c>
       <c r="AT102">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU102">
         <v>1.64</v>
@@ -20756,10 +20771,10 @@
         <v>0.33</v>
       </c>
       <c r="AS103">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT103">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU103">
         <v>1.62</v>
@@ -20947,7 +20962,7 @@
         <v>1</v>
       </c>
       <c r="AS104">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT104">
         <v>0.91</v>
@@ -21138,7 +21153,7 @@
         <v>1.17</v>
       </c>
       <c r="AS105">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT105">
         <v>1.33</v>
@@ -21242,7 +21257,7 @@
         <v>153</v>
       </c>
       <c r="P106" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q106">
         <v>2</v>
@@ -21329,7 +21344,7 @@
         <v>1.33</v>
       </c>
       <c r="AS106">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT106">
         <v>1.33</v>
@@ -21433,7 +21448,7 @@
         <v>154</v>
       </c>
       <c r="P107" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q107">
         <v>6</v>
@@ -21711,10 +21726,10 @@
         <v>1</v>
       </c>
       <c r="AS108">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT108">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU108">
         <v>1.48</v>
@@ -22579,7 +22594,7 @@
         <v>159</v>
       </c>
       <c r="P113" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -22860,7 +22875,7 @@
         <v>2</v>
       </c>
       <c r="AT114">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU114">
         <v>1.69</v>
@@ -23239,7 +23254,7 @@
         <v>0.86</v>
       </c>
       <c r="AS116">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT116">
         <v>1.33</v>
@@ -23430,10 +23445,10 @@
         <v>0.86</v>
       </c>
       <c r="AS117">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT117">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AU117">
         <v>1.27</v>
@@ -23534,7 +23549,7 @@
         <v>162</v>
       </c>
       <c r="P118" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -23624,7 +23639,7 @@
         <v>2.58</v>
       </c>
       <c r="AT118">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU118">
         <v>1.47</v>
@@ -23812,7 +23827,7 @@
         <v>1.57</v>
       </c>
       <c r="AS119">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT119">
         <v>1.5</v>
@@ -24003,10 +24018,10 @@
         <v>0.29</v>
       </c>
       <c r="AS120">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT120">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU120">
         <v>1.54</v>
@@ -24107,7 +24122,7 @@
         <v>164</v>
       </c>
       <c r="P121" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24197,7 +24212,7 @@
         <v>1.55</v>
       </c>
       <c r="AT121">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU121">
         <v>1.52</v>
@@ -24298,7 +24313,7 @@
         <v>159</v>
       </c>
       <c r="P122" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q122">
         <v>1</v>
@@ -24489,7 +24504,7 @@
         <v>165</v>
       </c>
       <c r="P123" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q123">
         <v>9</v>
@@ -24680,7 +24695,7 @@
         <v>166</v>
       </c>
       <c r="P124" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q124">
         <v>10</v>
@@ -24958,7 +24973,7 @@
         <v>0.29</v>
       </c>
       <c r="AS125">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT125">
         <v>0.5600000000000001</v>
@@ -25149,7 +25164,7 @@
         <v>0.57</v>
       </c>
       <c r="AS126">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT126">
         <v>0.5600000000000001</v>
@@ -25253,7 +25268,7 @@
         <v>168</v>
       </c>
       <c r="P127" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -25444,7 +25459,7 @@
         <v>95</v>
       </c>
       <c r="P128" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q128">
         <v>2</v>
@@ -25722,10 +25737,10 @@
         <v>1.43</v>
       </c>
       <c r="AS129">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT129">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU129">
         <v>1.5</v>
@@ -25826,7 +25841,7 @@
         <v>169</v>
       </c>
       <c r="P130" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q130">
         <v>5</v>
@@ -25916,7 +25931,7 @@
         <v>2</v>
       </c>
       <c r="AT130">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU130">
         <v>1.58</v>
@@ -26104,10 +26119,10 @@
         <v>1.63</v>
       </c>
       <c r="AS131">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT131">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU131">
         <v>1.52</v>
@@ -26208,7 +26223,7 @@
         <v>171</v>
       </c>
       <c r="P132" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q132">
         <v>7</v>
@@ -26295,7 +26310,7 @@
         <v>1</v>
       </c>
       <c r="AS132">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT132">
         <v>1.33</v>
@@ -26590,7 +26605,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q134">
         <v>1</v>
@@ -26781,7 +26796,7 @@
         <v>173</v>
       </c>
       <c r="P135" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -27059,7 +27074,7 @@
         <v>0.75</v>
       </c>
       <c r="AS136">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT136">
         <v>0.91</v>
@@ -27250,7 +27265,7 @@
         <v>1.5</v>
       </c>
       <c r="AS137">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT137">
         <v>1.5</v>
@@ -27444,7 +27459,7 @@
         <v>1.42</v>
       </c>
       <c r="AT138">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU138">
         <v>1.43</v>
@@ -27632,7 +27647,7 @@
         <v>1.11</v>
       </c>
       <c r="AS139">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT139">
         <v>0.91</v>
@@ -27736,7 +27751,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q140">
         <v>10</v>
@@ -27823,7 +27838,7 @@
         <v>1.44</v>
       </c>
       <c r="AS140">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT140">
         <v>1.33</v>
@@ -27927,7 +27942,7 @@
         <v>95</v>
       </c>
       <c r="P141" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q141">
         <v>12</v>
@@ -28014,7 +28029,7 @@
         <v>0.78</v>
       </c>
       <c r="AS141">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT141">
         <v>0.91</v>
@@ -28208,7 +28223,7 @@
         <v>2.58</v>
       </c>
       <c r="AT142">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU142">
         <v>1.41</v>
@@ -28309,7 +28324,7 @@
         <v>95</v>
       </c>
       <c r="P143" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q143">
         <v>5</v>
@@ -28500,7 +28515,7 @@
         <v>178</v>
       </c>
       <c r="P144" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q144">
         <v>2</v>
@@ -28587,7 +28602,7 @@
         <v>1.22</v>
       </c>
       <c r="AS144">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT144">
         <v>1.33</v>
@@ -28691,7 +28706,7 @@
         <v>95</v>
       </c>
       <c r="P145" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -28882,7 +28897,7 @@
         <v>179</v>
       </c>
       <c r="P146" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q146">
         <v>8</v>
@@ -28972,7 +28987,7 @@
         <v>2</v>
       </c>
       <c r="AT146">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU146">
         <v>1.68</v>
@@ -29073,7 +29088,7 @@
         <v>95</v>
       </c>
       <c r="P147" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -29160,10 +29175,10 @@
         <v>1.2</v>
       </c>
       <c r="AS147">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT147">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU147">
         <v>1.59</v>
@@ -29351,7 +29366,7 @@
         <v>1.4</v>
       </c>
       <c r="AS148">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT148">
         <v>1.33</v>
@@ -29455,7 +29470,7 @@
         <v>93</v>
       </c>
       <c r="P149" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q149">
         <v>2</v>
@@ -29646,7 +29661,7 @@
         <v>180</v>
       </c>
       <c r="P150" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q150">
         <v>6</v>
@@ -29733,7 +29748,7 @@
         <v>1.6</v>
       </c>
       <c r="AS150">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT150">
         <v>1.5</v>
@@ -29924,7 +29939,7 @@
         <v>1</v>
       </c>
       <c r="AS151">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT151">
         <v>0.91</v>
@@ -30028,7 +30043,7 @@
         <v>95</v>
       </c>
       <c r="P152" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q152">
         <v>4</v>
@@ -30497,10 +30512,10 @@
         <v>2.05</v>
       </c>
       <c r="AS154">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="AT154">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="AU154">
         <v>1.35</v>
@@ -30688,10 +30703,10 @@
         <v>1.78</v>
       </c>
       <c r="AS155">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="AT155">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="AU155">
         <v>1.33</v>
@@ -30792,7 +30807,7 @@
         <v>141</v>
       </c>
       <c r="P156" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q156">
         <v>5</v>
@@ -30983,7 +30998,7 @@
         <v>184</v>
       </c>
       <c r="P157" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q157">
         <v>3</v>
@@ -31174,7 +31189,7 @@
         <v>185</v>
       </c>
       <c r="P158" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -31365,7 +31380,7 @@
         <v>95</v>
       </c>
       <c r="P159" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q159">
         <v>7</v>
@@ -31556,7 +31571,7 @@
         <v>163</v>
       </c>
       <c r="P160" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q160">
         <v>7</v>
@@ -32080,6 +32095,1343 @@
       </c>
       <c r="BK162">
         <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:63">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>6167015</v>
+      </c>
+      <c r="C163" t="s">
+        <v>63</v>
+      </c>
+      <c r="D163" t="s">
+        <v>64</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45135.83333333334</v>
+      </c>
+      <c r="F163">
+        <v>2</v>
+      </c>
+      <c r="G163" t="s">
+        <v>68</v>
+      </c>
+      <c r="H163" t="s">
+        <v>71</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+      <c r="O163" t="s">
+        <v>95</v>
+      </c>
+      <c r="P163" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q163">
+        <v>5</v>
+      </c>
+      <c r="R163">
+        <v>4</v>
+      </c>
+      <c r="S163">
+        <v>9</v>
+      </c>
+      <c r="T163">
+        <v>2.31</v>
+      </c>
+      <c r="U163">
+        <v>1.98</v>
+      </c>
+      <c r="V163">
+        <v>5.6</v>
+      </c>
+      <c r="W163">
+        <v>1.5</v>
+      </c>
+      <c r="X163">
+        <v>2.42</v>
+      </c>
+      <c r="Y163">
+        <v>3.34</v>
+      </c>
+      <c r="Z163">
+        <v>1.28</v>
+      </c>
+      <c r="AA163">
+        <v>8.9</v>
+      </c>
+      <c r="AB163">
+        <v>1.03</v>
+      </c>
+      <c r="AC163">
+        <v>1.56</v>
+      </c>
+      <c r="AD163">
+        <v>3.5</v>
+      </c>
+      <c r="AE163">
+        <v>5.1</v>
+      </c>
+      <c r="AF163">
+        <v>1.05</v>
+      </c>
+      <c r="AG163">
+        <v>6.9</v>
+      </c>
+      <c r="AH163">
+        <v>1.42</v>
+      </c>
+      <c r="AI163">
+        <v>2.57</v>
+      </c>
+      <c r="AJ163">
+        <v>2.38</v>
+      </c>
+      <c r="AK163">
+        <v>1.53</v>
+      </c>
+      <c r="AL163">
+        <v>2.16</v>
+      </c>
+      <c r="AM163">
+        <v>1.59</v>
+      </c>
+      <c r="AN163">
+        <v>1.14</v>
+      </c>
+      <c r="AO163">
+        <v>1.27</v>
+      </c>
+      <c r="AP163">
+        <v>2.02</v>
+      </c>
+      <c r="AQ163">
+        <v>2.17</v>
+      </c>
+      <c r="AR163">
+        <v>1.27</v>
+      </c>
+      <c r="AS163">
+        <v>2.08</v>
+      </c>
+      <c r="AT163">
+        <v>1.25</v>
+      </c>
+      <c r="AU163">
+        <v>1.45</v>
+      </c>
+      <c r="AV163">
+        <v>1.5</v>
+      </c>
+      <c r="AW163">
+        <v>2.95</v>
+      </c>
+      <c r="AX163">
+        <v>1.4</v>
+      </c>
+      <c r="AY163">
+        <v>9</v>
+      </c>
+      <c r="AZ163">
+        <v>3.57</v>
+      </c>
+      <c r="BA163">
+        <v>1.36</v>
+      </c>
+      <c r="BB163">
+        <v>1.68</v>
+      </c>
+      <c r="BC163">
+        <v>2.08</v>
+      </c>
+      <c r="BD163">
+        <v>2.71</v>
+      </c>
+      <c r="BE163">
+        <v>3.6</v>
+      </c>
+      <c r="BF163">
+        <v>4</v>
+      </c>
+      <c r="BG163">
+        <v>3</v>
+      </c>
+      <c r="BH163">
+        <v>9</v>
+      </c>
+      <c r="BI163">
+        <v>5</v>
+      </c>
+      <c r="BJ163">
+        <v>13</v>
+      </c>
+      <c r="BK163">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:63">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>6167017</v>
+      </c>
+      <c r="C164" t="s">
+        <v>63</v>
+      </c>
+      <c r="D164" t="s">
+        <v>64</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45135.92013888889</v>
+      </c>
+      <c r="F164">
+        <v>2</v>
+      </c>
+      <c r="G164" t="s">
+        <v>67</v>
+      </c>
+      <c r="H164" t="s">
+        <v>77</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>1</v>
+      </c>
+      <c r="L164">
+        <v>2</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>2</v>
+      </c>
+      <c r="O164" t="s">
+        <v>186</v>
+      </c>
+      <c r="P164" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q164">
+        <v>5</v>
+      </c>
+      <c r="R164">
+        <v>6</v>
+      </c>
+      <c r="S164">
+        <v>11</v>
+      </c>
+      <c r="T164">
+        <v>3.2</v>
+      </c>
+      <c r="U164">
+        <v>1.9</v>
+      </c>
+      <c r="V164">
+        <v>3.6</v>
+      </c>
+      <c r="W164">
+        <v>1.52</v>
+      </c>
+      <c r="X164">
+        <v>2.38</v>
+      </c>
+      <c r="Y164">
+        <v>3.48</v>
+      </c>
+      <c r="Z164">
+        <v>1.26</v>
+      </c>
+      <c r="AA164">
+        <v>9.6</v>
+      </c>
+      <c r="AB164">
+        <v>1.02</v>
+      </c>
+      <c r="AC164">
+        <v>2.65</v>
+      </c>
+      <c r="AD164">
+        <v>2.95</v>
+      </c>
+      <c r="AE164">
+        <v>2.48</v>
+      </c>
+      <c r="AF164">
+        <v>1.06</v>
+      </c>
+      <c r="AG164">
+        <v>6.6</v>
+      </c>
+      <c r="AH164">
+        <v>1.45</v>
+      </c>
+      <c r="AI164">
+        <v>2.48</v>
+      </c>
+      <c r="AJ164">
+        <v>2.5</v>
+      </c>
+      <c r="AK164">
+        <v>1.5</v>
+      </c>
+      <c r="AL164">
+        <v>2.01</v>
+      </c>
+      <c r="AM164">
+        <v>1.68</v>
+      </c>
+      <c r="AN164">
+        <v>1.38</v>
+      </c>
+      <c r="AO164">
+        <v>1.33</v>
+      </c>
+      <c r="AP164">
+        <v>1.46</v>
+      </c>
+      <c r="AQ164">
+        <v>1.45</v>
+      </c>
+      <c r="AR164">
+        <v>1.25</v>
+      </c>
+      <c r="AS164">
+        <v>1.58</v>
+      </c>
+      <c r="AT164">
+        <v>1.15</v>
+      </c>
+      <c r="AU164">
+        <v>1.82</v>
+      </c>
+      <c r="AV164">
+        <v>1.13</v>
+      </c>
+      <c r="AW164">
+        <v>2.95</v>
+      </c>
+      <c r="AX164">
+        <v>1.74</v>
+      </c>
+      <c r="AY164">
+        <v>8.4</v>
+      </c>
+      <c r="AZ164">
+        <v>2.36</v>
+      </c>
+      <c r="BA164">
+        <v>0</v>
+      </c>
+      <c r="BB164">
+        <v>1.65</v>
+      </c>
+      <c r="BC164">
+        <v>2.04</v>
+      </c>
+      <c r="BD164">
+        <v>2.6</v>
+      </c>
+      <c r="BE164">
+        <v>2.45</v>
+      </c>
+      <c r="BF164">
+        <v>6</v>
+      </c>
+      <c r="BG164">
+        <v>4</v>
+      </c>
+      <c r="BH164">
+        <v>6</v>
+      </c>
+      <c r="BI164">
+        <v>2</v>
+      </c>
+      <c r="BJ164">
+        <v>12</v>
+      </c>
+      <c r="BK164">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:63">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>6167012</v>
+      </c>
+      <c r="C165" t="s">
+        <v>63</v>
+      </c>
+      <c r="D165" t="s">
+        <v>64</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45136.72916666666</v>
+      </c>
+      <c r="F165">
+        <v>2</v>
+      </c>
+      <c r="G165" t="s">
+        <v>69</v>
+      </c>
+      <c r="H165" t="s">
+        <v>74</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>1</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>1</v>
+      </c>
+      <c r="N165">
+        <v>1</v>
+      </c>
+      <c r="O165" t="s">
+        <v>95</v>
+      </c>
+      <c r="P165" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q165">
+        <v>9</v>
+      </c>
+      <c r="R165">
+        <v>3</v>
+      </c>
+      <c r="S165">
+        <v>12</v>
+      </c>
+      <c r="T165">
+        <v>2.5</v>
+      </c>
+      <c r="U165">
+        <v>2</v>
+      </c>
+      <c r="V165">
+        <v>4.6</v>
+      </c>
+      <c r="W165">
+        <v>1.48</v>
+      </c>
+      <c r="X165">
+        <v>2.5</v>
+      </c>
+      <c r="Y165">
+        <v>3.1</v>
+      </c>
+      <c r="Z165">
+        <v>1.32</v>
+      </c>
+      <c r="AA165">
+        <v>7.25</v>
+      </c>
+      <c r="AB165">
+        <v>1.07</v>
+      </c>
+      <c r="AC165">
+        <v>1.91</v>
+      </c>
+      <c r="AD165">
+        <v>3.2</v>
+      </c>
+      <c r="AE165">
+        <v>3.55</v>
+      </c>
+      <c r="AF165">
+        <v>1.06</v>
+      </c>
+      <c r="AG165">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="AH165">
+        <v>1.36</v>
+      </c>
+      <c r="AI165">
+        <v>2.88</v>
+      </c>
+      <c r="AJ165">
+        <v>2.14</v>
+      </c>
+      <c r="AK165">
+        <v>1.58</v>
+      </c>
+      <c r="AL165">
+        <v>1.95</v>
+      </c>
+      <c r="AM165">
+        <v>1.81</v>
+      </c>
+      <c r="AN165">
+        <v>1.22</v>
+      </c>
+      <c r="AO165">
+        <v>1.25</v>
+      </c>
+      <c r="AP165">
+        <v>1.88</v>
+      </c>
+      <c r="AQ165">
+        <v>1</v>
+      </c>
+      <c r="AR165">
+        <v>0.63</v>
+      </c>
+      <c r="AS165">
+        <v>0.89</v>
+      </c>
+      <c r="AT165">
+        <v>0.89</v>
+      </c>
+      <c r="AU165">
+        <v>1.47</v>
+      </c>
+      <c r="AV165">
+        <v>0.96</v>
+      </c>
+      <c r="AW165">
+        <v>2.43</v>
+      </c>
+      <c r="AX165">
+        <v>1.51</v>
+      </c>
+      <c r="AY165">
+        <v>9.1</v>
+      </c>
+      <c r="AZ165">
+        <v>2.89</v>
+      </c>
+      <c r="BA165">
+        <v>1.38</v>
+      </c>
+      <c r="BB165">
+        <v>1.38</v>
+      </c>
+      <c r="BC165">
+        <v>1.74</v>
+      </c>
+      <c r="BD165">
+        <v>2.15</v>
+      </c>
+      <c r="BE165">
+        <v>3.81</v>
+      </c>
+      <c r="BF165">
+        <v>3</v>
+      </c>
+      <c r="BG165">
+        <v>4</v>
+      </c>
+      <c r="BH165">
+        <v>5</v>
+      </c>
+      <c r="BI165">
+        <v>1</v>
+      </c>
+      <c r="BJ165">
+        <v>8</v>
+      </c>
+      <c r="BK165">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:63">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>6167016</v>
+      </c>
+      <c r="C166" t="s">
+        <v>63</v>
+      </c>
+      <c r="D166" t="s">
+        <v>64</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45136.72916666666</v>
+      </c>
+      <c r="F166">
+        <v>2</v>
+      </c>
+      <c r="G166" t="s">
+        <v>79</v>
+      </c>
+      <c r="H166" t="s">
+        <v>72</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>2</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>2</v>
+      </c>
+      <c r="O166" t="s">
+        <v>187</v>
+      </c>
+      <c r="P166" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q166">
+        <v>-1</v>
+      </c>
+      <c r="R166">
+        <v>-1</v>
+      </c>
+      <c r="S166">
+        <v>-1</v>
+      </c>
+      <c r="T166">
+        <v>2.46</v>
+      </c>
+      <c r="U166">
+        <v>2.1</v>
+      </c>
+      <c r="V166">
+        <v>5.52</v>
+      </c>
+      <c r="W166">
+        <v>1.49</v>
+      </c>
+      <c r="X166">
+        <v>2.59</v>
+      </c>
+      <c r="Y166">
+        <v>3.28</v>
+      </c>
+      <c r="Z166">
+        <v>1.29</v>
+      </c>
+      <c r="AA166">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AB166">
+        <v>1.04</v>
+      </c>
+      <c r="AC166">
+        <v>1.73</v>
+      </c>
+      <c r="AD166">
+        <v>3.45</v>
+      </c>
+      <c r="AE166">
+        <v>4.6</v>
+      </c>
+      <c r="AF166">
+        <v>1.07</v>
+      </c>
+      <c r="AG166">
+        <v>8.65</v>
+      </c>
+      <c r="AH166">
+        <v>1.41</v>
+      </c>
+      <c r="AI166">
+        <v>2.68</v>
+      </c>
+      <c r="AJ166">
+        <v>2.15</v>
+      </c>
+      <c r="AK166">
+        <v>1.57</v>
+      </c>
+      <c r="AL166">
+        <v>2.11</v>
+      </c>
+      <c r="AM166">
+        <v>1.69</v>
+      </c>
+      <c r="AN166">
+        <v>1.14</v>
+      </c>
+      <c r="AO166">
+        <v>1.26</v>
+      </c>
+      <c r="AP166">
+        <v>2.03</v>
+      </c>
+      <c r="AQ166">
+        <v>2.18</v>
+      </c>
+      <c r="AR166">
+        <v>0.75</v>
+      </c>
+      <c r="AS166">
+        <v>2.25</v>
+      </c>
+      <c r="AT166">
+        <v>0.67</v>
+      </c>
+      <c r="AU166">
+        <v>1.63</v>
+      </c>
+      <c r="AV166">
+        <v>1.08</v>
+      </c>
+      <c r="AW166">
+        <v>2.71</v>
+      </c>
+      <c r="AX166">
+        <v>1.4</v>
+      </c>
+      <c r="AY166">
+        <v>9.1</v>
+      </c>
+      <c r="AZ166">
+        <v>3.4</v>
+      </c>
+      <c r="BA166">
+        <v>1.33</v>
+      </c>
+      <c r="BB166">
+        <v>1.61</v>
+      </c>
+      <c r="BC166">
+        <v>2.03</v>
+      </c>
+      <c r="BD166">
+        <v>2.6</v>
+      </c>
+      <c r="BE166">
+        <v>3.4</v>
+      </c>
+      <c r="BF166">
+        <v>-1</v>
+      </c>
+      <c r="BG166">
+        <v>-1</v>
+      </c>
+      <c r="BH166">
+        <v>-1</v>
+      </c>
+      <c r="BI166">
+        <v>-1</v>
+      </c>
+      <c r="BJ166">
+        <v>-1</v>
+      </c>
+      <c r="BK166">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:63">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>6167013</v>
+      </c>
+      <c r="C167" t="s">
+        <v>63</v>
+      </c>
+      <c r="D167" t="s">
+        <v>64</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45137.72916666666</v>
+      </c>
+      <c r="F167">
+        <v>2</v>
+      </c>
+      <c r="G167" t="s">
+        <v>65</v>
+      </c>
+      <c r="H167" t="s">
+        <v>76</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167">
+        <v>0</v>
+      </c>
+      <c r="O167" t="s">
+        <v>95</v>
+      </c>
+      <c r="P167" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q167">
+        <v>3</v>
+      </c>
+      <c r="R167">
+        <v>3</v>
+      </c>
+      <c r="S167">
+        <v>6</v>
+      </c>
+      <c r="T167">
+        <v>3.15</v>
+      </c>
+      <c r="U167">
+        <v>1.9</v>
+      </c>
+      <c r="V167">
+        <v>3.66</v>
+      </c>
+      <c r="W167">
+        <v>1.52</v>
+      </c>
+      <c r="X167">
+        <v>2.38</v>
+      </c>
+      <c r="Y167">
+        <v>3.42</v>
+      </c>
+      <c r="Z167">
+        <v>1.27</v>
+      </c>
+      <c r="AA167">
+        <v>9.4</v>
+      </c>
+      <c r="AB167">
+        <v>1.03</v>
+      </c>
+      <c r="AC167">
+        <v>2.56</v>
+      </c>
+      <c r="AD167">
+        <v>3.05</v>
+      </c>
+      <c r="AE167">
+        <v>2.49</v>
+      </c>
+      <c r="AF167">
+        <v>1.06</v>
+      </c>
+      <c r="AG167">
+        <v>6.65</v>
+      </c>
+      <c r="AH167">
+        <v>1.44</v>
+      </c>
+      <c r="AI167">
+        <v>2.51</v>
+      </c>
+      <c r="AJ167">
+        <v>2.45</v>
+      </c>
+      <c r="AK167">
+        <v>1.5</v>
+      </c>
+      <c r="AL167">
+        <v>2</v>
+      </c>
+      <c r="AM167">
+        <v>1.69</v>
+      </c>
+      <c r="AN167">
+        <v>1.36</v>
+      </c>
+      <c r="AO167">
+        <v>1.33</v>
+      </c>
+      <c r="AP167">
+        <v>1.48</v>
+      </c>
+      <c r="AQ167">
+        <v>0.63</v>
+      </c>
+      <c r="AR167">
+        <v>0.88</v>
+      </c>
+      <c r="AS167">
+        <v>0.67</v>
+      </c>
+      <c r="AT167">
+        <v>0.89</v>
+      </c>
+      <c r="AU167">
+        <v>1.27</v>
+      </c>
+      <c r="AV167">
+        <v>1.2</v>
+      </c>
+      <c r="AW167">
+        <v>2.47</v>
+      </c>
+      <c r="AX167">
+        <v>2</v>
+      </c>
+      <c r="AY167">
+        <v>7</v>
+      </c>
+      <c r="AZ167">
+        <v>2.2</v>
+      </c>
+      <c r="BA167">
+        <v>1.4</v>
+      </c>
+      <c r="BB167">
+        <v>1.68</v>
+      </c>
+      <c r="BC167">
+        <v>2.13</v>
+      </c>
+      <c r="BD167">
+        <v>2.63</v>
+      </c>
+      <c r="BE167">
+        <v>3.7</v>
+      </c>
+      <c r="BF167">
+        <v>0</v>
+      </c>
+      <c r="BG167">
+        <v>6</v>
+      </c>
+      <c r="BH167">
+        <v>10</v>
+      </c>
+      <c r="BI167">
+        <v>4</v>
+      </c>
+      <c r="BJ167">
+        <v>10</v>
+      </c>
+      <c r="BK167">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:63">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>6167014</v>
+      </c>
+      <c r="C168" t="s">
+        <v>63</v>
+      </c>
+      <c r="D168" t="s">
+        <v>64</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45137.72916666666</v>
+      </c>
+      <c r="F168">
+        <v>2</v>
+      </c>
+      <c r="G168" t="s">
+        <v>80</v>
+      </c>
+      <c r="H168" t="s">
+        <v>75</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>1</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>1</v>
+      </c>
+      <c r="O168" t="s">
+        <v>188</v>
+      </c>
+      <c r="P168" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q168">
+        <v>3</v>
+      </c>
+      <c r="R168">
+        <v>1</v>
+      </c>
+      <c r="S168">
+        <v>4</v>
+      </c>
+      <c r="T168">
+        <v>2.5</v>
+      </c>
+      <c r="U168">
+        <v>1.95</v>
+      </c>
+      <c r="V168">
+        <v>4.8</v>
+      </c>
+      <c r="W168">
+        <v>1.48</v>
+      </c>
+      <c r="X168">
+        <v>2.4</v>
+      </c>
+      <c r="Y168">
+        <v>3.3</v>
+      </c>
+      <c r="Z168">
+        <v>1.28</v>
+      </c>
+      <c r="AA168">
+        <v>7.75</v>
+      </c>
+      <c r="AB168">
+        <v>1.06</v>
+      </c>
+      <c r="AC168">
+        <v>1.84</v>
+      </c>
+      <c r="AD168">
+        <v>3.12</v>
+      </c>
+      <c r="AE168">
+        <v>4.05</v>
+      </c>
+      <c r="AF168">
+        <v>1.08</v>
+      </c>
+      <c r="AG168">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AH168">
+        <v>1.39</v>
+      </c>
+      <c r="AI168">
+        <v>2.76</v>
+      </c>
+      <c r="AJ168">
+        <v>2.35</v>
+      </c>
+      <c r="AK168">
+        <v>1.58</v>
+      </c>
+      <c r="AL168">
+        <v>2.04</v>
+      </c>
+      <c r="AM168">
+        <v>1.66</v>
+      </c>
+      <c r="AN168">
+        <v>1.2</v>
+      </c>
+      <c r="AO168">
+        <v>1.28</v>
+      </c>
+      <c r="AP168">
+        <v>1.85</v>
+      </c>
+      <c r="AQ168">
+        <v>1.5</v>
+      </c>
+      <c r="AR168">
+        <v>0.38</v>
+      </c>
+      <c r="AS168">
+        <v>1.67</v>
+      </c>
+      <c r="AT168">
+        <v>0.33</v>
+      </c>
+      <c r="AU168">
+        <v>1.62</v>
+      </c>
+      <c r="AV168">
+        <v>1.07</v>
+      </c>
+      <c r="AW168">
+        <v>2.69</v>
+      </c>
+      <c r="AX168">
+        <v>1.52</v>
+      </c>
+      <c r="AY168">
+        <v>8.6</v>
+      </c>
+      <c r="AZ168">
+        <v>2.91</v>
+      </c>
+      <c r="BA168">
+        <v>1.44</v>
+      </c>
+      <c r="BB168">
+        <v>1.67</v>
+      </c>
+      <c r="BC168">
+        <v>2.07</v>
+      </c>
+      <c r="BD168">
+        <v>2.67</v>
+      </c>
+      <c r="BE168">
+        <v>0</v>
+      </c>
+      <c r="BF168">
+        <v>5</v>
+      </c>
+      <c r="BG168">
+        <v>4</v>
+      </c>
+      <c r="BH168">
+        <v>8</v>
+      </c>
+      <c r="BI168">
+        <v>6</v>
+      </c>
+      <c r="BJ168">
+        <v>13</v>
+      </c>
+      <c r="BK168">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:63">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>6167019</v>
+      </c>
+      <c r="C169" t="s">
+        <v>63</v>
+      </c>
+      <c r="D169" t="s">
+        <v>64</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45138.75</v>
+      </c>
+      <c r="F169">
+        <v>2</v>
+      </c>
+      <c r="G169" t="s">
+        <v>66</v>
+      </c>
+      <c r="H169" t="s">
+        <v>81</v>
+      </c>
+      <c r="I169">
+        <v>2</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>2</v>
+      </c>
+      <c r="L169">
+        <v>2</v>
+      </c>
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169">
+        <v>2</v>
+      </c>
+      <c r="O169" t="s">
+        <v>189</v>
+      </c>
+      <c r="P169" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q169">
+        <v>-1</v>
+      </c>
+      <c r="R169">
+        <v>-1</v>
+      </c>
+      <c r="S169">
+        <v>-1</v>
+      </c>
+      <c r="T169">
+        <v>0</v>
+      </c>
+      <c r="U169">
+        <v>0</v>
+      </c>
+      <c r="V169">
+        <v>0</v>
+      </c>
+      <c r="W169">
+        <v>0</v>
+      </c>
+      <c r="X169">
+        <v>0</v>
+      </c>
+      <c r="Y169">
+        <v>0</v>
+      </c>
+      <c r="Z169">
+        <v>0</v>
+      </c>
+      <c r="AA169">
+        <v>0</v>
+      </c>
+      <c r="AB169">
+        <v>0</v>
+      </c>
+      <c r="AC169">
+        <v>1.44</v>
+      </c>
+      <c r="AD169">
+        <v>4.1</v>
+      </c>
+      <c r="AE169">
+        <v>5.4</v>
+      </c>
+      <c r="AF169">
+        <v>0</v>
+      </c>
+      <c r="AG169">
+        <v>0</v>
+      </c>
+      <c r="AH169">
+        <v>0</v>
+      </c>
+      <c r="AI169">
+        <v>0</v>
+      </c>
+      <c r="AJ169">
+        <v>1.94</v>
+      </c>
+      <c r="AK169">
+        <v>1.82</v>
+      </c>
+      <c r="AL169">
+        <v>0</v>
+      </c>
+      <c r="AM169">
+        <v>0</v>
+      </c>
+      <c r="AN169">
+        <v>0</v>
+      </c>
+      <c r="AO169">
+        <v>0</v>
+      </c>
+      <c r="AP169">
+        <v>0</v>
+      </c>
+      <c r="AQ169">
+        <v>2.09</v>
+      </c>
+      <c r="AR169">
+        <v>0</v>
+      </c>
+      <c r="AS169">
+        <v>2.17</v>
+      </c>
+      <c r="AT169">
+        <v>0</v>
+      </c>
+      <c r="AU169">
+        <v>1.58</v>
+      </c>
+      <c r="AV169">
+        <v>0</v>
+      </c>
+      <c r="AW169">
+        <v>1.58</v>
+      </c>
+      <c r="AX169">
+        <v>0</v>
+      </c>
+      <c r="AY169">
+        <v>0</v>
+      </c>
+      <c r="AZ169">
+        <v>0</v>
+      </c>
+      <c r="BA169">
+        <v>0</v>
+      </c>
+      <c r="BB169">
+        <v>0</v>
+      </c>
+      <c r="BC169">
+        <v>0</v>
+      </c>
+      <c r="BD169">
+        <v>0</v>
+      </c>
+      <c r="BE169">
+        <v>0</v>
+      </c>
+      <c r="BF169">
+        <v>-1</v>
+      </c>
+      <c r="BG169">
+        <v>-1</v>
+      </c>
+      <c r="BH169">
+        <v>-1</v>
+      </c>
+      <c r="BI169">
+        <v>-1</v>
+      </c>
+      <c r="BJ169">
+        <v>-1</v>
+      </c>
+      <c r="BK169">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
